--- a/mesures_couverts.xlsx
+++ b/mesures_couverts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maral\Desktop\Universite\MASTER1\Q2\LBIRA2130 - Projet disciplinaire\LBIRA2130_Couverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA10EA38-57DF-423F-B255-BDCB1FF2F0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D8064C-B14D-4A59-8F9A-2F19C8514E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D0C76E02-6240-421E-9415-499825F072BD}"/>
+    <workbookView xWindow="5760" yWindow="1236" windowWidth="17280" windowHeight="9420" xr2:uid="{D0C76E02-6240-421E-9415-499825F072BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="42">
   <si>
     <t>ID_planche</t>
   </si>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,11 +271,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -287,13 +290,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -627,15 +623,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206F8975-33D2-4BAA-996D-101D2A201CBE}">
-  <dimension ref="A1:W501"/>
+  <dimension ref="A1:V501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G260" sqref="G260"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.109375" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" customWidth="1"/>
@@ -646,13 +642,13 @@
     <col min="10" max="10" width="7.109375" customWidth="1"/>
     <col min="11" max="11" width="7.33203125" customWidth="1"/>
     <col min="12" max="12" width="7.5546875" customWidth="1"/>
-    <col min="20" max="20" width="12.5546875" customWidth="1"/>
-    <col min="21" max="21" width="10.88671875" customWidth="1"/>
-    <col min="22" max="22" width="19.77734375" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" customWidth="1"/>
+    <col min="20" max="20" width="10.88671875" customWidth="1"/>
+    <col min="21" max="21" width="19.77734375" customWidth="1"/>
+    <col min="22" max="22" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -696,38 +692,35 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
@@ -750,9 +743,8 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -779,9 +771,8 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -808,9 +799,8 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -837,9 +827,8 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -866,9 +855,8 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -895,9 +883,8 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -924,9 +911,8 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -953,9 +939,8 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -982,9 +967,8 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1011,9 +995,8 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1040,9 +1023,8 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1069,9 +1051,8 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1098,9 +1079,8 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1127,9 +1107,8 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1156,9 +1135,8 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1185,9 +1163,8 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1214,9 +1191,8 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1243,9 +1219,8 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -1272,9 +1247,8 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -1301,9 +1275,8 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -1330,9 +1303,8 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1359,9 +1331,8 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -1388,9 +1359,8 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -1417,9 +1387,8 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -1446,9 +1415,8 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -1475,9 +1443,8 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>2</v>
       </c>
@@ -1504,9 +1471,8 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -1533,9 +1499,8 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -1562,9 +1527,8 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -1591,9 +1555,8 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -1620,9 +1583,8 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1649,9 +1611,8 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -1678,9 +1639,8 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -1707,9 +1667,8 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -1736,9 +1695,8 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1765,9 +1723,8 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -1794,9 +1751,8 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -1823,9 +1779,8 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>2</v>
       </c>
@@ -1852,9 +1807,8 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>2</v>
       </c>
@@ -1881,9 +1835,8 @@
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>3</v>
       </c>
@@ -1910,9 +1863,8 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>3</v>
       </c>
@@ -1939,9 +1891,8 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>3</v>
       </c>
@@ -1968,9 +1919,8 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -1997,9 +1947,8 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>3</v>
       </c>
@@ -2026,9 +1975,8 @@
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -2055,9 +2003,8 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>3</v>
       </c>
@@ -2084,9 +2031,8 @@
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -2113,9 +2059,8 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -2142,9 +2087,8 @@
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -2171,9 +2115,8 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -2200,9 +2143,8 @@
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>3</v>
       </c>
@@ -2229,9 +2171,8 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -2258,9 +2199,8 @@
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>3</v>
       </c>
@@ -2287,9 +2227,8 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -2316,9 +2255,8 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>3</v>
       </c>
@@ -2345,9 +2283,8 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -2374,9 +2311,8 @@
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>3</v>
       </c>
@@ -2403,9 +2339,8 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>3</v>
       </c>
@@ -2432,9 +2367,8 @@
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-    </row>
-    <row r="61" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>3</v>
       </c>
@@ -2461,9 +2395,8 @@
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>4</v>
       </c>
@@ -2490,9 +2423,8 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>4</v>
       </c>
@@ -2519,9 +2451,8 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>4</v>
       </c>
@@ -2548,9 +2479,8 @@
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>4</v>
       </c>
@@ -2577,9 +2507,8 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>4</v>
       </c>
@@ -2606,9 +2535,8 @@
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>4</v>
       </c>
@@ -2635,9 +2563,8 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>4</v>
       </c>
@@ -2664,9 +2591,8 @@
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>4</v>
       </c>
@@ -2693,9 +2619,8 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>4</v>
       </c>
@@ -2722,9 +2647,8 @@
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>4</v>
       </c>
@@ -2751,9 +2675,8 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>4</v>
       </c>
@@ -2780,9 +2703,8 @@
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>4</v>
       </c>
@@ -2809,9 +2731,8 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>4</v>
       </c>
@@ -2838,9 +2759,8 @@
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>4</v>
       </c>
@@ -2867,9 +2787,8 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>4</v>
       </c>
@@ -2896,9 +2815,8 @@
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>4</v>
       </c>
@@ -2925,9 +2843,8 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>4</v>
       </c>
@@ -2954,9 +2871,8 @@
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -2983,9 +2899,8 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>4</v>
       </c>
@@ -3012,9 +2927,8 @@
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
-    </row>
-    <row r="81" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>4</v>
       </c>
@@ -3041,9 +2955,8 @@
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
       <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>5</v>
       </c>
@@ -3070,9 +2983,8 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>5</v>
       </c>
@@ -3099,9 +3011,8 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
-      <c r="W83" s="1"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>5</v>
       </c>
@@ -3128,9 +3039,8 @@
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
-      <c r="W84" s="3"/>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>5</v>
       </c>
@@ -3157,9 +3067,8 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>5</v>
       </c>
@@ -3186,9 +3095,8 @@
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
-      <c r="W86" s="3"/>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>5</v>
       </c>
@@ -3215,9 +3123,8 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
-      <c r="W87" s="1"/>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>5</v>
       </c>
@@ -3244,9 +3151,8 @@
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
-      <c r="W88" s="3"/>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>5</v>
       </c>
@@ -3273,9 +3179,8 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>5</v>
       </c>
@@ -3302,9 +3207,8 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-      <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>5</v>
       </c>
@@ -3331,9 +3235,8 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>5</v>
       </c>
@@ -3360,9 +3263,8 @@
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
-      <c r="W92" s="3"/>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>5</v>
       </c>
@@ -3389,9 +3291,8 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
-      <c r="W93" s="1"/>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>5</v>
       </c>
@@ -3418,9 +3319,8 @@
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
-      <c r="W94" s="3"/>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>5</v>
       </c>
@@ -3447,9 +3347,8 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
-      <c r="W95" s="1"/>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>5</v>
       </c>
@@ -3476,9 +3375,8 @@
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
-      <c r="W96" s="3"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>5</v>
       </c>
@@ -3505,9 +3403,8 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
-      <c r="W97" s="1"/>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>5</v>
       </c>
@@ -3534,9 +3431,8 @@
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
-      <c r="W98" s="3"/>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>5</v>
       </c>
@@ -3563,9 +3459,8 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>5</v>
       </c>
@@ -3592,9 +3487,8 @@
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
-      <c r="W100" s="3"/>
-    </row>
-    <row r="101" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>5</v>
       </c>
@@ -3621,9 +3515,8 @@
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
       <c r="V101" s="5"/>
-      <c r="W101" s="5"/>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>6</v>
       </c>
@@ -3650,9 +3543,8 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
-      <c r="W102" s="4"/>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>6</v>
       </c>
@@ -3679,9 +3571,8 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
-      <c r="W103" s="1"/>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>6</v>
       </c>
@@ -3708,9 +3599,8 @@
       <c r="T104" s="3"/>
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
-      <c r="W104" s="3"/>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -3737,9 +3627,8 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
-      <c r="W105" s="1"/>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>6</v>
       </c>
@@ -3766,9 +3655,8 @@
       <c r="T106" s="3"/>
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
-      <c r="W106" s="3"/>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>6</v>
       </c>
@@ -3795,9 +3683,8 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
-      <c r="W107" s="1"/>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>6</v>
       </c>
@@ -3824,9 +3711,8 @@
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
-      <c r="W108" s="3"/>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>6</v>
       </c>
@@ -3853,9 +3739,8 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
       <c r="V109" s="1"/>
-      <c r="W109" s="1"/>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>6</v>
       </c>
@@ -3882,9 +3767,8 @@
       <c r="T110" s="3"/>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
-      <c r="W110" s="3"/>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>6</v>
       </c>
@@ -3911,9 +3795,8 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
-      <c r="W111" s="1"/>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>6</v>
       </c>
@@ -3940,9 +3823,8 @@
       <c r="T112" s="3"/>
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
-      <c r="W112" s="3"/>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>6</v>
       </c>
@@ -3969,9 +3851,8 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
-      <c r="W113" s="1"/>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>6</v>
       </c>
@@ -3998,9 +3879,8 @@
       <c r="T114" s="3"/>
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
-      <c r="W114" s="3"/>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>6</v>
       </c>
@@ -4027,9 +3907,8 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
-      <c r="W115" s="1"/>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>6</v>
       </c>
@@ -4056,9 +3935,8 @@
       <c r="T116" s="3"/>
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
-      <c r="W116" s="3"/>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>6</v>
       </c>
@@ -4085,9 +3963,8 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
       <c r="V117" s="1"/>
-      <c r="W117" s="1"/>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>6</v>
       </c>
@@ -4114,9 +3991,8 @@
       <c r="T118" s="3"/>
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
-      <c r="W118" s="3"/>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>6</v>
       </c>
@@ -4143,9 +4019,8 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
       <c r="V119" s="1"/>
-      <c r="W119" s="1"/>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>6</v>
       </c>
@@ -4172,9 +4047,8 @@
       <c r="T120" s="3"/>
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
-      <c r="W120" s="3"/>
-    </row>
-    <row r="121" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>6</v>
       </c>
@@ -4201,9 +4075,8 @@
       <c r="T121" s="5"/>
       <c r="U121" s="5"/>
       <c r="V121" s="5"/>
-      <c r="W121" s="5"/>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>7</v>
       </c>
@@ -4230,9 +4103,8 @@
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
-      <c r="W122" s="4"/>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>7</v>
       </c>
@@ -4259,9 +4131,8 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
       <c r="V123" s="1"/>
-      <c r="W123" s="1"/>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>7</v>
       </c>
@@ -4288,9 +4159,8 @@
       <c r="T124" s="3"/>
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
-      <c r="W124" s="3"/>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>7</v>
       </c>
@@ -4317,9 +4187,8 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
       <c r="V125" s="1"/>
-      <c r="W125" s="1"/>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>7</v>
       </c>
@@ -4346,9 +4215,8 @@
       <c r="T126" s="3"/>
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
-      <c r="W126" s="3"/>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>7</v>
       </c>
@@ -4375,9 +4243,8 @@
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
       <c r="V127" s="1"/>
-      <c r="W127" s="1"/>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>7</v>
       </c>
@@ -4404,9 +4271,8 @@
       <c r="T128" s="3"/>
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
-      <c r="W128" s="3"/>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>7</v>
       </c>
@@ -4433,9 +4299,8 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
       <c r="V129" s="1"/>
-      <c r="W129" s="1"/>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>7</v>
       </c>
@@ -4462,9 +4327,8 @@
       <c r="T130" s="3"/>
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
-      <c r="W130" s="3"/>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>7</v>
       </c>
@@ -4491,9 +4355,8 @@
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
       <c r="V131" s="1"/>
-      <c r="W131" s="1"/>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>7</v>
       </c>
@@ -4520,9 +4383,8 @@
       <c r="T132" s="3"/>
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
-      <c r="W132" s="3"/>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>7</v>
       </c>
@@ -4549,9 +4411,8 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
       <c r="V133" s="1"/>
-      <c r="W133" s="1"/>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>7</v>
       </c>
@@ -4578,9 +4439,8 @@
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
-      <c r="W134" s="3"/>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>7</v>
       </c>
@@ -4607,9 +4467,8 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
       <c r="V135" s="1"/>
-      <c r="W135" s="1"/>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>7</v>
       </c>
@@ -4636,9 +4495,8 @@
       <c r="T136" s="3"/>
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
-      <c r="W136" s="3"/>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>7</v>
       </c>
@@ -4665,9 +4523,8 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
       <c r="V137" s="1"/>
-      <c r="W137" s="1"/>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>7</v>
       </c>
@@ -4694,9 +4551,8 @@
       <c r="T138" s="3"/>
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
-      <c r="W138" s="3"/>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>7</v>
       </c>
@@ -4723,9 +4579,8 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
       <c r="V139" s="1"/>
-      <c r="W139" s="1"/>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>7</v>
       </c>
@@ -4752,9 +4607,8 @@
       <c r="T140" s="3"/>
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
-      <c r="W140" s="3"/>
-    </row>
-    <row r="141" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>7</v>
       </c>
@@ -4781,9 +4635,8 @@
       <c r="T141" s="5"/>
       <c r="U141" s="5"/>
       <c r="V141" s="5"/>
-      <c r="W141" s="5"/>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>8</v>
       </c>
@@ -4810,9 +4663,8 @@
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
-      <c r="W142" s="4"/>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>8</v>
       </c>
@@ -4839,9 +4691,8 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
       <c r="V143" s="1"/>
-      <c r="W143" s="1"/>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>8</v>
       </c>
@@ -4868,9 +4719,8 @@
       <c r="T144" s="3"/>
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
-      <c r="W144" s="3"/>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>8</v>
       </c>
@@ -4897,9 +4747,8 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
       <c r="V145" s="1"/>
-      <c r="W145" s="1"/>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>8</v>
       </c>
@@ -4926,9 +4775,8 @@
       <c r="T146" s="3"/>
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
-      <c r="W146" s="3"/>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>8</v>
       </c>
@@ -4955,9 +4803,8 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
       <c r="V147" s="1"/>
-      <c r="W147" s="1"/>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>8</v>
       </c>
@@ -4984,9 +4831,8 @@
       <c r="T148" s="3"/>
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
-      <c r="W148" s="3"/>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>8</v>
       </c>
@@ -5013,9 +4859,8 @@
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
       <c r="V149" s="1"/>
-      <c r="W149" s="1"/>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>8</v>
       </c>
@@ -5042,9 +4887,8 @@
       <c r="T150" s="3"/>
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
-      <c r="W150" s="3"/>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>8</v>
       </c>
@@ -5071,9 +4915,8 @@
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
       <c r="V151" s="1"/>
-      <c r="W151" s="1"/>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>8</v>
       </c>
@@ -5100,9 +4943,8 @@
       <c r="T152" s="3"/>
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
-      <c r="W152" s="3"/>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>8</v>
       </c>
@@ -5129,9 +4971,8 @@
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
       <c r="V153" s="1"/>
-      <c r="W153" s="1"/>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>8</v>
       </c>
@@ -5158,9 +4999,8 @@
       <c r="T154" s="3"/>
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
-      <c r="W154" s="3"/>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>8</v>
       </c>
@@ -5187,9 +5027,8 @@
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
       <c r="V155" s="1"/>
-      <c r="W155" s="1"/>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>8</v>
       </c>
@@ -5216,9 +5055,8 @@
       <c r="T156" s="3"/>
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
-      <c r="W156" s="3"/>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>8</v>
       </c>
@@ -5245,9 +5083,8 @@
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
       <c r="V157" s="1"/>
-      <c r="W157" s="1"/>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>8</v>
       </c>
@@ -5274,9 +5111,8 @@
       <c r="T158" s="3"/>
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
-      <c r="W158" s="3"/>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>8</v>
       </c>
@@ -5303,9 +5139,8 @@
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
       <c r="V159" s="1"/>
-      <c r="W159" s="1"/>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>8</v>
       </c>
@@ -5332,9 +5167,8 @@
       <c r="T160" s="3"/>
       <c r="U160" s="3"/>
       <c r="V160" s="3"/>
-      <c r="W160" s="3"/>
-    </row>
-    <row r="161" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
         <v>8</v>
       </c>
@@ -5361,9 +5195,8 @@
       <c r="T161" s="5"/>
       <c r="U161" s="5"/>
       <c r="V161" s="5"/>
-      <c r="W161" s="5"/>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>9</v>
       </c>
@@ -5390,9 +5223,8 @@
       <c r="T162" s="4"/>
       <c r="U162" s="4"/>
       <c r="V162" s="4"/>
-      <c r="W162" s="4"/>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>9</v>
       </c>
@@ -5419,9 +5251,8 @@
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
       <c r="V163" s="1"/>
-      <c r="W163" s="1"/>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>9</v>
       </c>
@@ -5448,9 +5279,8 @@
       <c r="T164" s="3"/>
       <c r="U164" s="3"/>
       <c r="V164" s="3"/>
-      <c r="W164" s="3"/>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>9</v>
       </c>
@@ -5477,9 +5307,8 @@
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
       <c r="V165" s="1"/>
-      <c r="W165" s="1"/>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>9</v>
       </c>
@@ -5506,9 +5335,8 @@
       <c r="T166" s="3"/>
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
-      <c r="W166" s="3"/>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>9</v>
       </c>
@@ -5535,9 +5363,8 @@
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
       <c r="V167" s="1"/>
-      <c r="W167" s="1"/>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>9</v>
       </c>
@@ -5564,9 +5391,8 @@
       <c r="T168" s="3"/>
       <c r="U168" s="3"/>
       <c r="V168" s="3"/>
-      <c r="W168" s="3"/>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>9</v>
       </c>
@@ -5593,9 +5419,8 @@
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
       <c r="V169" s="1"/>
-      <c r="W169" s="1"/>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>9</v>
       </c>
@@ -5622,9 +5447,8 @@
       <c r="T170" s="3"/>
       <c r="U170" s="3"/>
       <c r="V170" s="3"/>
-      <c r="W170" s="3"/>
-    </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>9</v>
       </c>
@@ -5651,9 +5475,8 @@
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
       <c r="V171" s="1"/>
-      <c r="W171" s="1"/>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>9</v>
       </c>
@@ -5680,9 +5503,8 @@
       <c r="T172" s="3"/>
       <c r="U172" s="3"/>
       <c r="V172" s="3"/>
-      <c r="W172" s="3"/>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>9</v>
       </c>
@@ -5709,9 +5531,8 @@
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
       <c r="V173" s="1"/>
-      <c r="W173" s="1"/>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>9</v>
       </c>
@@ -5738,9 +5559,8 @@
       <c r="T174" s="3"/>
       <c r="U174" s="3"/>
       <c r="V174" s="3"/>
-      <c r="W174" s="3"/>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>9</v>
       </c>
@@ -5767,9 +5587,8 @@
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
       <c r="V175" s="1"/>
-      <c r="W175" s="1"/>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>9</v>
       </c>
@@ -5796,9 +5615,8 @@
       <c r="T176" s="3"/>
       <c r="U176" s="3"/>
       <c r="V176" s="3"/>
-      <c r="W176" s="3"/>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>9</v>
       </c>
@@ -5825,9 +5643,8 @@
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
       <c r="V177" s="1"/>
-      <c r="W177" s="1"/>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>9</v>
       </c>
@@ -5854,9 +5671,8 @@
       <c r="T178" s="3"/>
       <c r="U178" s="3"/>
       <c r="V178" s="3"/>
-      <c r="W178" s="3"/>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>9</v>
       </c>
@@ -5883,9 +5699,8 @@
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
       <c r="V179" s="1"/>
-      <c r="W179" s="1"/>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>9</v>
       </c>
@@ -5912,9 +5727,8 @@
       <c r="T180" s="3"/>
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
-      <c r="W180" s="3"/>
-    </row>
-    <row r="181" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>9</v>
       </c>
@@ -5941,9 +5755,8 @@
       <c r="T181" s="5"/>
       <c r="U181" s="5"/>
       <c r="V181" s="5"/>
-      <c r="W181" s="5"/>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>10</v>
       </c>
@@ -5970,9 +5783,8 @@
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
       <c r="V182" s="4"/>
-      <c r="W182" s="4"/>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>10</v>
       </c>
@@ -5999,9 +5811,8 @@
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
       <c r="V183" s="1"/>
-      <c r="W183" s="1"/>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>10</v>
       </c>
@@ -6028,9 +5839,8 @@
       <c r="T184" s="3"/>
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
-      <c r="W184" s="3"/>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>10</v>
       </c>
@@ -6057,9 +5867,8 @@
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
       <c r="V185" s="1"/>
-      <c r="W185" s="1"/>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>10</v>
       </c>
@@ -6086,9 +5895,8 @@
       <c r="T186" s="3"/>
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
-      <c r="W186" s="3"/>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>10</v>
       </c>
@@ -6115,9 +5923,8 @@
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
       <c r="V187" s="1"/>
-      <c r="W187" s="1"/>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>10</v>
       </c>
@@ -6144,9 +5951,8 @@
       <c r="T188" s="3"/>
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
-      <c r="W188" s="3"/>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>10</v>
       </c>
@@ -6173,9 +5979,8 @@
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
       <c r="V189" s="1"/>
-      <c r="W189" s="1"/>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>10</v>
       </c>
@@ -6202,9 +6007,8 @@
       <c r="T190" s="3"/>
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
-      <c r="W190" s="3"/>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>10</v>
       </c>
@@ -6231,9 +6035,8 @@
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
       <c r="V191" s="1"/>
-      <c r="W191" s="1"/>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>10</v>
       </c>
@@ -6260,9 +6063,8 @@
       <c r="T192" s="3"/>
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
-      <c r="W192" s="3"/>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>10</v>
       </c>
@@ -6289,9 +6091,8 @@
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
       <c r="V193" s="1"/>
-      <c r="W193" s="1"/>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>10</v>
       </c>
@@ -6318,9 +6119,8 @@
       <c r="T194" s="3"/>
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
-      <c r="W194" s="3"/>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>10</v>
       </c>
@@ -6347,9 +6147,8 @@
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
       <c r="V195" s="1"/>
-      <c r="W195" s="1"/>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>10</v>
       </c>
@@ -6376,9 +6175,8 @@
       <c r="T196" s="3"/>
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
-      <c r="W196" s="3"/>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>10</v>
       </c>
@@ -6405,9 +6203,8 @@
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
       <c r="V197" s="1"/>
-      <c r="W197" s="1"/>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>10</v>
       </c>
@@ -6434,9 +6231,8 @@
       <c r="T198" s="3"/>
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
-      <c r="W198" s="3"/>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>10</v>
       </c>
@@ -6463,9 +6259,8 @@
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
       <c r="V199" s="1"/>
-      <c r="W199" s="1"/>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>10</v>
       </c>
@@ -6492,9 +6287,8 @@
       <c r="T200" s="3"/>
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
-      <c r="W200" s="3"/>
-    </row>
-    <row r="201" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
         <v>10</v>
       </c>
@@ -6521,9 +6315,8 @@
       <c r="T201" s="5"/>
       <c r="U201" s="5"/>
       <c r="V201" s="5"/>
-      <c r="W201" s="5"/>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>11</v>
       </c>
@@ -6550,9 +6343,8 @@
       <c r="T202" s="4"/>
       <c r="U202" s="4"/>
       <c r="V202" s="4"/>
-      <c r="W202" s="4"/>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>11</v>
       </c>
@@ -6579,9 +6371,8 @@
       <c r="T203" s="1"/>
       <c r="U203" s="1"/>
       <c r="V203" s="1"/>
-      <c r="W203" s="1"/>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>11</v>
       </c>
@@ -6608,9 +6399,8 @@
       <c r="T204" s="3"/>
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
-      <c r="W204" s="3"/>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>11</v>
       </c>
@@ -6637,9 +6427,8 @@
       <c r="T205" s="1"/>
       <c r="U205" s="1"/>
       <c r="V205" s="1"/>
-      <c r="W205" s="1"/>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>11</v>
       </c>
@@ -6666,9 +6455,8 @@
       <c r="T206" s="3"/>
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
-      <c r="W206" s="3"/>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>11</v>
       </c>
@@ -6695,9 +6483,8 @@
       <c r="T207" s="1"/>
       <c r="U207" s="1"/>
       <c r="V207" s="1"/>
-      <c r="W207" s="1"/>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>11</v>
       </c>
@@ -6724,9 +6511,8 @@
       <c r="T208" s="3"/>
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
-      <c r="W208" s="3"/>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>11</v>
       </c>
@@ -6753,9 +6539,8 @@
       <c r="T209" s="1"/>
       <c r="U209" s="1"/>
       <c r="V209" s="1"/>
-      <c r="W209" s="1"/>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>11</v>
       </c>
@@ -6782,9 +6567,8 @@
       <c r="T210" s="3"/>
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
-      <c r="W210" s="3"/>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>11</v>
       </c>
@@ -6811,9 +6595,8 @@
       <c r="T211" s="1"/>
       <c r="U211" s="1"/>
       <c r="V211" s="1"/>
-      <c r="W211" s="1"/>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>11</v>
       </c>
@@ -6840,9 +6623,8 @@
       <c r="T212" s="3"/>
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
-      <c r="W212" s="3"/>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>11</v>
       </c>
@@ -6869,9 +6651,8 @@
       <c r="T213" s="1"/>
       <c r="U213" s="1"/>
       <c r="V213" s="1"/>
-      <c r="W213" s="1"/>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>11</v>
       </c>
@@ -6898,9 +6679,8 @@
       <c r="T214" s="3"/>
       <c r="U214" s="3"/>
       <c r="V214" s="3"/>
-      <c r="W214" s="3"/>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>11</v>
       </c>
@@ -6927,9 +6707,8 @@
       <c r="T215" s="1"/>
       <c r="U215" s="1"/>
       <c r="V215" s="1"/>
-      <c r="W215" s="1"/>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>11</v>
       </c>
@@ -6956,9 +6735,8 @@
       <c r="T216" s="3"/>
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
-      <c r="W216" s="3"/>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>11</v>
       </c>
@@ -6985,9 +6763,8 @@
       <c r="T217" s="1"/>
       <c r="U217" s="1"/>
       <c r="V217" s="1"/>
-      <c r="W217" s="1"/>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>11</v>
       </c>
@@ -7014,9 +6791,8 @@
       <c r="T218" s="3"/>
       <c r="U218" s="3"/>
       <c r="V218" s="3"/>
-      <c r="W218" s="3"/>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>11</v>
       </c>
@@ -7043,9 +6819,8 @@
       <c r="T219" s="1"/>
       <c r="U219" s="1"/>
       <c r="V219" s="1"/>
-      <c r="W219" s="1"/>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>11</v>
       </c>
@@ -7072,9 +6847,8 @@
       <c r="T220" s="3"/>
       <c r="U220" s="3"/>
       <c r="V220" s="3"/>
-      <c r="W220" s="3"/>
-    </row>
-    <row r="221" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
         <v>11</v>
       </c>
@@ -7101,9 +6875,8 @@
       <c r="T221" s="5"/>
       <c r="U221" s="5"/>
       <c r="V221" s="5"/>
-      <c r="W221" s="5"/>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>12</v>
       </c>
@@ -7130,9 +6903,8 @@
       <c r="T222" s="4"/>
       <c r="U222" s="4"/>
       <c r="V222" s="4"/>
-      <c r="W222" s="4"/>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>12</v>
       </c>
@@ -7159,9 +6931,8 @@
       <c r="T223" s="1"/>
       <c r="U223" s="1"/>
       <c r="V223" s="1"/>
-      <c r="W223" s="1"/>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>12</v>
       </c>
@@ -7188,9 +6959,8 @@
       <c r="T224" s="3"/>
       <c r="U224" s="3"/>
       <c r="V224" s="3"/>
-      <c r="W224" s="3"/>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>12</v>
       </c>
@@ -7217,9 +6987,8 @@
       <c r="T225" s="1"/>
       <c r="U225" s="1"/>
       <c r="V225" s="1"/>
-      <c r="W225" s="1"/>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>12</v>
       </c>
@@ -7246,9 +7015,8 @@
       <c r="T226" s="3"/>
       <c r="U226" s="3"/>
       <c r="V226" s="3"/>
-      <c r="W226" s="3"/>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>12</v>
       </c>
@@ -7275,9 +7043,8 @@
       <c r="T227" s="1"/>
       <c r="U227" s="1"/>
       <c r="V227" s="1"/>
-      <c r="W227" s="1"/>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>12</v>
       </c>
@@ -7304,9 +7071,8 @@
       <c r="T228" s="3"/>
       <c r="U228" s="3"/>
       <c r="V228" s="3"/>
-      <c r="W228" s="3"/>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>12</v>
       </c>
@@ -7333,9 +7099,8 @@
       <c r="T229" s="1"/>
       <c r="U229" s="1"/>
       <c r="V229" s="1"/>
-      <c r="W229" s="1"/>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>12</v>
       </c>
@@ -7362,9 +7127,8 @@
       <c r="T230" s="3"/>
       <c r="U230" s="3"/>
       <c r="V230" s="3"/>
-      <c r="W230" s="3"/>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>12</v>
       </c>
@@ -7391,9 +7155,8 @@
       <c r="T231" s="1"/>
       <c r="U231" s="1"/>
       <c r="V231" s="1"/>
-      <c r="W231" s="1"/>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>12</v>
       </c>
@@ -7420,9 +7183,8 @@
       <c r="T232" s="3"/>
       <c r="U232" s="3"/>
       <c r="V232" s="3"/>
-      <c r="W232" s="3"/>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>12</v>
       </c>
@@ -7449,9 +7211,8 @@
       <c r="T233" s="1"/>
       <c r="U233" s="1"/>
       <c r="V233" s="1"/>
-      <c r="W233" s="1"/>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>12</v>
       </c>
@@ -7478,9 +7239,8 @@
       <c r="T234" s="3"/>
       <c r="U234" s="3"/>
       <c r="V234" s="3"/>
-      <c r="W234" s="3"/>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>12</v>
       </c>
@@ -7507,9 +7267,8 @@
       <c r="T235" s="1"/>
       <c r="U235" s="1"/>
       <c r="V235" s="1"/>
-      <c r="W235" s="1"/>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>12</v>
       </c>
@@ -7536,9 +7295,8 @@
       <c r="T236" s="3"/>
       <c r="U236" s="3"/>
       <c r="V236" s="3"/>
-      <c r="W236" s="3"/>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>12</v>
       </c>
@@ -7565,9 +7323,8 @@
       <c r="T237" s="1"/>
       <c r="U237" s="1"/>
       <c r="V237" s="1"/>
-      <c r="W237" s="1"/>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>12</v>
       </c>
@@ -7594,9 +7351,8 @@
       <c r="T238" s="3"/>
       <c r="U238" s="3"/>
       <c r="V238" s="3"/>
-      <c r="W238" s="3"/>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>12</v>
       </c>
@@ -7623,9 +7379,8 @@
       <c r="T239" s="1"/>
       <c r="U239" s="1"/>
       <c r="V239" s="1"/>
-      <c r="W239" s="1"/>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>12</v>
       </c>
@@ -7652,9 +7407,8 @@
       <c r="T240" s="3"/>
       <c r="U240" s="3"/>
       <c r="V240" s="3"/>
-      <c r="W240" s="3"/>
-    </row>
-    <row r="241" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="241" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="5">
         <v>12</v>
       </c>
@@ -7681,9 +7435,8 @@
       <c r="T241" s="5"/>
       <c r="U241" s="5"/>
       <c r="V241" s="5"/>
-      <c r="W241" s="5"/>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>13</v>
       </c>
@@ -7710,9 +7463,8 @@
       <c r="T242" s="4"/>
       <c r="U242" s="4"/>
       <c r="V242" s="4"/>
-      <c r="W242" s="4"/>
-    </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>13</v>
       </c>
@@ -7739,9 +7491,8 @@
       <c r="T243" s="1"/>
       <c r="U243" s="1"/>
       <c r="V243" s="1"/>
-      <c r="W243" s="1"/>
-    </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>13</v>
       </c>
@@ -7768,9 +7519,8 @@
       <c r="T244" s="3"/>
       <c r="U244" s="3"/>
       <c r="V244" s="3"/>
-      <c r="W244" s="3"/>
-    </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>13</v>
       </c>
@@ -7797,9 +7547,8 @@
       <c r="T245" s="1"/>
       <c r="U245" s="1"/>
       <c r="V245" s="1"/>
-      <c r="W245" s="1"/>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>13</v>
       </c>
@@ -7826,9 +7575,8 @@
       <c r="T246" s="3"/>
       <c r="U246" s="3"/>
       <c r="V246" s="3"/>
-      <c r="W246" s="3"/>
-    </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>13</v>
       </c>
@@ -7855,9 +7603,8 @@
       <c r="T247" s="1"/>
       <c r="U247" s="1"/>
       <c r="V247" s="1"/>
-      <c r="W247" s="1"/>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>13</v>
       </c>
@@ -7884,9 +7631,8 @@
       <c r="T248" s="3"/>
       <c r="U248" s="3"/>
       <c r="V248" s="3"/>
-      <c r="W248" s="3"/>
-    </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>13</v>
       </c>
@@ -7913,9 +7659,8 @@
       <c r="T249" s="1"/>
       <c r="U249" s="1"/>
       <c r="V249" s="1"/>
-      <c r="W249" s="1"/>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>13</v>
       </c>
@@ -7942,9 +7687,8 @@
       <c r="T250" s="3"/>
       <c r="U250" s="3"/>
       <c r="V250" s="3"/>
-      <c r="W250" s="3"/>
-    </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>13</v>
       </c>
@@ -7971,9 +7715,8 @@
       <c r="T251" s="1"/>
       <c r="U251" s="1"/>
       <c r="V251" s="1"/>
-      <c r="W251" s="1"/>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>13</v>
       </c>
@@ -8000,9 +7743,8 @@
       <c r="T252" s="3"/>
       <c r="U252" s="3"/>
       <c r="V252" s="3"/>
-      <c r="W252" s="3"/>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>13</v>
       </c>
@@ -8029,9 +7771,8 @@
       <c r="T253" s="1"/>
       <c r="U253" s="1"/>
       <c r="V253" s="1"/>
-      <c r="W253" s="1"/>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>13</v>
       </c>
@@ -8058,9 +7799,8 @@
       <c r="T254" s="3"/>
       <c r="U254" s="3"/>
       <c r="V254" s="3"/>
-      <c r="W254" s="3"/>
-    </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>13</v>
       </c>
@@ -8087,9 +7827,8 @@
       <c r="T255" s="1"/>
       <c r="U255" s="1"/>
       <c r="V255" s="1"/>
-      <c r="W255" s="1"/>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>13</v>
       </c>
@@ -8116,9 +7855,8 @@
       <c r="T256" s="3"/>
       <c r="U256" s="3"/>
       <c r="V256" s="3"/>
-      <c r="W256" s="3"/>
-    </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>13</v>
       </c>
@@ -8145,9 +7883,8 @@
       <c r="T257" s="1"/>
       <c r="U257" s="1"/>
       <c r="V257" s="1"/>
-      <c r="W257" s="1"/>
-    </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>13</v>
       </c>
@@ -8174,9 +7911,8 @@
       <c r="T258" s="3"/>
       <c r="U258" s="3"/>
       <c r="V258" s="3"/>
-      <c r="W258" s="3"/>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>13</v>
       </c>
@@ -8203,9 +7939,8 @@
       <c r="T259" s="1"/>
       <c r="U259" s="1"/>
       <c r="V259" s="1"/>
-      <c r="W259" s="1"/>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>13</v>
       </c>
@@ -8232,9 +7967,8 @@
       <c r="T260" s="3"/>
       <c r="U260" s="3"/>
       <c r="V260" s="3"/>
-      <c r="W260" s="3"/>
-    </row>
-    <row r="261" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="261" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="5">
         <v>13</v>
       </c>
@@ -8261,9 +7995,8 @@
       <c r="T261" s="5"/>
       <c r="U261" s="5"/>
       <c r="V261" s="5"/>
-      <c r="W261" s="5"/>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>14</v>
       </c>
@@ -8290,9 +8023,8 @@
       <c r="T262" s="4"/>
       <c r="U262" s="4"/>
       <c r="V262" s="4"/>
-      <c r="W262" s="4"/>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>14</v>
       </c>
@@ -8319,9 +8051,8 @@
       <c r="T263" s="1"/>
       <c r="U263" s="1"/>
       <c r="V263" s="1"/>
-      <c r="W263" s="1"/>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>14</v>
       </c>
@@ -8348,9 +8079,8 @@
       <c r="T264" s="3"/>
       <c r="U264" s="3"/>
       <c r="V264" s="3"/>
-      <c r="W264" s="3"/>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>14</v>
       </c>
@@ -8377,9 +8107,8 @@
       <c r="T265" s="1"/>
       <c r="U265" s="1"/>
       <c r="V265" s="1"/>
-      <c r="W265" s="1"/>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>14</v>
       </c>
@@ -8406,9 +8135,8 @@
       <c r="T266" s="3"/>
       <c r="U266" s="3"/>
       <c r="V266" s="3"/>
-      <c r="W266" s="3"/>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>14</v>
       </c>
@@ -8435,9 +8163,8 @@
       <c r="T267" s="1"/>
       <c r="U267" s="1"/>
       <c r="V267" s="1"/>
-      <c r="W267" s="1"/>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>14</v>
       </c>
@@ -8464,9 +8191,8 @@
       <c r="T268" s="3"/>
       <c r="U268" s="3"/>
       <c r="V268" s="3"/>
-      <c r="W268" s="3"/>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>14</v>
       </c>
@@ -8493,9 +8219,8 @@
       <c r="T269" s="1"/>
       <c r="U269" s="1"/>
       <c r="V269" s="1"/>
-      <c r="W269" s="1"/>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>14</v>
       </c>
@@ -8522,9 +8247,8 @@
       <c r="T270" s="3"/>
       <c r="U270" s="3"/>
       <c r="V270" s="3"/>
-      <c r="W270" s="3"/>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>14</v>
       </c>
@@ -8551,9 +8275,8 @@
       <c r="T271" s="1"/>
       <c r="U271" s="1"/>
       <c r="V271" s="1"/>
-      <c r="W271" s="1"/>
-    </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>14</v>
       </c>
@@ -8580,9 +8303,8 @@
       <c r="T272" s="3"/>
       <c r="U272" s="3"/>
       <c r="V272" s="3"/>
-      <c r="W272" s="3"/>
-    </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>14</v>
       </c>
@@ -8609,9 +8331,8 @@
       <c r="T273" s="1"/>
       <c r="U273" s="1"/>
       <c r="V273" s="1"/>
-      <c r="W273" s="1"/>
-    </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>14</v>
       </c>
@@ -8638,9 +8359,8 @@
       <c r="T274" s="3"/>
       <c r="U274" s="3"/>
       <c r="V274" s="3"/>
-      <c r="W274" s="3"/>
-    </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>14</v>
       </c>
@@ -8667,9 +8387,8 @@
       <c r="T275" s="1"/>
       <c r="U275" s="1"/>
       <c r="V275" s="1"/>
-      <c r="W275" s="1"/>
-    </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>14</v>
       </c>
@@ -8696,9 +8415,8 @@
       <c r="T276" s="3"/>
       <c r="U276" s="3"/>
       <c r="V276" s="3"/>
-      <c r="W276" s="3"/>
-    </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>14</v>
       </c>
@@ -8725,9 +8443,8 @@
       <c r="T277" s="1"/>
       <c r="U277" s="1"/>
       <c r="V277" s="1"/>
-      <c r="W277" s="1"/>
-    </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>14</v>
       </c>
@@ -8754,9 +8471,8 @@
       <c r="T278" s="3"/>
       <c r="U278" s="3"/>
       <c r="V278" s="3"/>
-      <c r="W278" s="3"/>
-    </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>14</v>
       </c>
@@ -8783,9 +8499,8 @@
       <c r="T279" s="1"/>
       <c r="U279" s="1"/>
       <c r="V279" s="1"/>
-      <c r="W279" s="1"/>
-    </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>14</v>
       </c>
@@ -8812,9 +8527,8 @@
       <c r="T280" s="3"/>
       <c r="U280" s="3"/>
       <c r="V280" s="3"/>
-      <c r="W280" s="3"/>
-    </row>
-    <row r="281" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="281" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="5">
         <v>14</v>
       </c>
@@ -8841,9 +8555,8 @@
       <c r="T281" s="5"/>
       <c r="U281" s="5"/>
       <c r="V281" s="5"/>
-      <c r="W281" s="5"/>
-    </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>15</v>
       </c>
@@ -8870,9 +8583,8 @@
       <c r="T282" s="4"/>
       <c r="U282" s="4"/>
       <c r="V282" s="4"/>
-      <c r="W282" s="4"/>
-    </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>15</v>
       </c>
@@ -8899,9 +8611,8 @@
       <c r="T283" s="1"/>
       <c r="U283" s="1"/>
       <c r="V283" s="1"/>
-      <c r="W283" s="1"/>
-    </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>15</v>
       </c>
@@ -8928,9 +8639,8 @@
       <c r="T284" s="3"/>
       <c r="U284" s="3"/>
       <c r="V284" s="3"/>
-      <c r="W284" s="3"/>
-    </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>15</v>
       </c>
@@ -8957,9 +8667,8 @@
       <c r="T285" s="1"/>
       <c r="U285" s="1"/>
       <c r="V285" s="1"/>
-      <c r="W285" s="1"/>
-    </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>15</v>
       </c>
@@ -8986,9 +8695,8 @@
       <c r="T286" s="3"/>
       <c r="U286" s="3"/>
       <c r="V286" s="3"/>
-      <c r="W286" s="3"/>
-    </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>15</v>
       </c>
@@ -9015,9 +8723,8 @@
       <c r="T287" s="1"/>
       <c r="U287" s="1"/>
       <c r="V287" s="1"/>
-      <c r="W287" s="1"/>
-    </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>15</v>
       </c>
@@ -9044,9 +8751,8 @@
       <c r="T288" s="3"/>
       <c r="U288" s="3"/>
       <c r="V288" s="3"/>
-      <c r="W288" s="3"/>
-    </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>15</v>
       </c>
@@ -9073,9 +8779,8 @@
       <c r="T289" s="1"/>
       <c r="U289" s="1"/>
       <c r="V289" s="1"/>
-      <c r="W289" s="1"/>
-    </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>15</v>
       </c>
@@ -9102,9 +8807,8 @@
       <c r="T290" s="3"/>
       <c r="U290" s="3"/>
       <c r="V290" s="3"/>
-      <c r="W290" s="3"/>
-    </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>15</v>
       </c>
@@ -9131,9 +8835,8 @@
       <c r="T291" s="1"/>
       <c r="U291" s="1"/>
       <c r="V291" s="1"/>
-      <c r="W291" s="1"/>
-    </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>15</v>
       </c>
@@ -9160,9 +8863,8 @@
       <c r="T292" s="3"/>
       <c r="U292" s="3"/>
       <c r="V292" s="3"/>
-      <c r="W292" s="3"/>
-    </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>15</v>
       </c>
@@ -9189,9 +8891,8 @@
       <c r="T293" s="1"/>
       <c r="U293" s="1"/>
       <c r="V293" s="1"/>
-      <c r="W293" s="1"/>
-    </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>15</v>
       </c>
@@ -9218,9 +8919,8 @@
       <c r="T294" s="3"/>
       <c r="U294" s="3"/>
       <c r="V294" s="3"/>
-      <c r="W294" s="3"/>
-    </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="295" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>15</v>
       </c>
@@ -9247,9 +8947,8 @@
       <c r="T295" s="1"/>
       <c r="U295" s="1"/>
       <c r="V295" s="1"/>
-      <c r="W295" s="1"/>
-    </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>15</v>
       </c>
@@ -9276,9 +8975,8 @@
       <c r="T296" s="3"/>
       <c r="U296" s="3"/>
       <c r="V296" s="3"/>
-      <c r="W296" s="3"/>
-    </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>15</v>
       </c>
@@ -9305,9 +9003,8 @@
       <c r="T297" s="1"/>
       <c r="U297" s="1"/>
       <c r="V297" s="1"/>
-      <c r="W297" s="1"/>
-    </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>15</v>
       </c>
@@ -9334,9 +9031,8 @@
       <c r="T298" s="3"/>
       <c r="U298" s="3"/>
       <c r="V298" s="3"/>
-      <c r="W298" s="3"/>
-    </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>15</v>
       </c>
@@ -9363,9 +9059,8 @@
       <c r="T299" s="1"/>
       <c r="U299" s="1"/>
       <c r="V299" s="1"/>
-      <c r="W299" s="1"/>
-    </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>15</v>
       </c>
@@ -9392,9 +9087,8 @@
       <c r="T300" s="3"/>
       <c r="U300" s="3"/>
       <c r="V300" s="3"/>
-      <c r="W300" s="3"/>
-    </row>
-    <row r="301" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="301" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="5">
         <v>15</v>
       </c>
@@ -9421,9 +9115,8 @@
       <c r="T301" s="5"/>
       <c r="U301" s="5"/>
       <c r="V301" s="5"/>
-      <c r="W301" s="5"/>
-    </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
         <v>16</v>
       </c>
@@ -9450,9 +9143,8 @@
       <c r="T302" s="4"/>
       <c r="U302" s="4"/>
       <c r="V302" s="4"/>
-      <c r="W302" s="4"/>
-    </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>16</v>
       </c>
@@ -9479,9 +9171,8 @@
       <c r="T303" s="1"/>
       <c r="U303" s="1"/>
       <c r="V303" s="1"/>
-      <c r="W303" s="1"/>
-    </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="304" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>16</v>
       </c>
@@ -9508,9 +9199,8 @@
       <c r="T304" s="3"/>
       <c r="U304" s="3"/>
       <c r="V304" s="3"/>
-      <c r="W304" s="3"/>
-    </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>16</v>
       </c>
@@ -9537,9 +9227,8 @@
       <c r="T305" s="1"/>
       <c r="U305" s="1"/>
       <c r="V305" s="1"/>
-      <c r="W305" s="1"/>
-    </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <v>16</v>
       </c>
@@ -9566,9 +9255,8 @@
       <c r="T306" s="3"/>
       <c r="U306" s="3"/>
       <c r="V306" s="3"/>
-      <c r="W306" s="3"/>
-    </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>16</v>
       </c>
@@ -9595,9 +9283,8 @@
       <c r="T307" s="1"/>
       <c r="U307" s="1"/>
       <c r="V307" s="1"/>
-      <c r="W307" s="1"/>
-    </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>16</v>
       </c>
@@ -9624,9 +9311,8 @@
       <c r="T308" s="3"/>
       <c r="U308" s="3"/>
       <c r="V308" s="3"/>
-      <c r="W308" s="3"/>
-    </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>16</v>
       </c>
@@ -9653,9 +9339,8 @@
       <c r="T309" s="1"/>
       <c r="U309" s="1"/>
       <c r="V309" s="1"/>
-      <c r="W309" s="1"/>
-    </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>16</v>
       </c>
@@ -9682,9 +9367,8 @@
       <c r="T310" s="3"/>
       <c r="U310" s="3"/>
       <c r="V310" s="3"/>
-      <c r="W310" s="3"/>
-    </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>16</v>
       </c>
@@ -9711,9 +9395,8 @@
       <c r="T311" s="1"/>
       <c r="U311" s="1"/>
       <c r="V311" s="1"/>
-      <c r="W311" s="1"/>
-    </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
         <v>16</v>
       </c>
@@ -9740,9 +9423,8 @@
       <c r="T312" s="3"/>
       <c r="U312" s="3"/>
       <c r="V312" s="3"/>
-      <c r="W312" s="3"/>
-    </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="313" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>16</v>
       </c>
@@ -9769,9 +9451,8 @@
       <c r="T313" s="1"/>
       <c r="U313" s="1"/>
       <c r="V313" s="1"/>
-      <c r="W313" s="1"/>
-    </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A314" s="3">
         <v>16</v>
       </c>
@@ -9798,9 +9479,8 @@
       <c r="T314" s="3"/>
       <c r="U314" s="3"/>
       <c r="V314" s="3"/>
-      <c r="W314" s="3"/>
-    </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>16</v>
       </c>
@@ -9827,9 +9507,8 @@
       <c r="T315" s="1"/>
       <c r="U315" s="1"/>
       <c r="V315" s="1"/>
-      <c r="W315" s="1"/>
-    </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>16</v>
       </c>
@@ -9856,9 +9535,8 @@
       <c r="T316" s="3"/>
       <c r="U316" s="3"/>
       <c r="V316" s="3"/>
-      <c r="W316" s="3"/>
-    </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>16</v>
       </c>
@@ -9885,9 +9563,8 @@
       <c r="T317" s="1"/>
       <c r="U317" s="1"/>
       <c r="V317" s="1"/>
-      <c r="W317" s="1"/>
-    </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <v>16</v>
       </c>
@@ -9914,9 +9591,8 @@
       <c r="T318" s="3"/>
       <c r="U318" s="3"/>
       <c r="V318" s="3"/>
-      <c r="W318" s="3"/>
-    </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>16</v>
       </c>
@@ -9943,9 +9619,8 @@
       <c r="T319" s="1"/>
       <c r="U319" s="1"/>
       <c r="V319" s="1"/>
-      <c r="W319" s="1"/>
-    </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
         <v>16</v>
       </c>
@@ -9972,9 +9647,8 @@
       <c r="T320" s="3"/>
       <c r="U320" s="3"/>
       <c r="V320" s="3"/>
-      <c r="W320" s="3"/>
-    </row>
-    <row r="321" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="321" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="5">
         <v>16</v>
       </c>
@@ -10001,9 +9675,8 @@
       <c r="T321" s="5"/>
       <c r="U321" s="5"/>
       <c r="V321" s="5"/>
-      <c r="W321" s="5"/>
-    </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
         <v>17</v>
       </c>
@@ -10030,9 +9703,8 @@
       <c r="T322" s="4"/>
       <c r="U322" s="4"/>
       <c r="V322" s="4"/>
-      <c r="W322" s="4"/>
-    </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>17</v>
       </c>
@@ -10059,9 +9731,8 @@
       <c r="T323" s="1"/>
       <c r="U323" s="1"/>
       <c r="V323" s="1"/>
-      <c r="W323" s="1"/>
-    </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="324" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <v>17</v>
       </c>
@@ -10088,9 +9759,8 @@
       <c r="T324" s="3"/>
       <c r="U324" s="3"/>
       <c r="V324" s="3"/>
-      <c r="W324" s="3"/>
-    </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="325" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>17</v>
       </c>
@@ -10117,9 +9787,8 @@
       <c r="T325" s="1"/>
       <c r="U325" s="1"/>
       <c r="V325" s="1"/>
-      <c r="W325" s="1"/>
-    </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="326" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>17</v>
       </c>
@@ -10146,9 +9815,8 @@
       <c r="T326" s="3"/>
       <c r="U326" s="3"/>
       <c r="V326" s="3"/>
-      <c r="W326" s="3"/>
-    </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="327" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>17</v>
       </c>
@@ -10175,9 +9843,8 @@
       <c r="T327" s="1"/>
       <c r="U327" s="1"/>
       <c r="V327" s="1"/>
-      <c r="W327" s="1"/>
-    </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="328" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <v>17</v>
       </c>
@@ -10204,9 +9871,8 @@
       <c r="T328" s="3"/>
       <c r="U328" s="3"/>
       <c r="V328" s="3"/>
-      <c r="W328" s="3"/>
-    </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="329" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>17</v>
       </c>
@@ -10233,9 +9899,8 @@
       <c r="T329" s="1"/>
       <c r="U329" s="1"/>
       <c r="V329" s="1"/>
-      <c r="W329" s="1"/>
-    </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="330" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <v>17</v>
       </c>
@@ -10262,9 +9927,8 @@
       <c r="T330" s="3"/>
       <c r="U330" s="3"/>
       <c r="V330" s="3"/>
-      <c r="W330" s="3"/>
-    </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="331" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>17</v>
       </c>
@@ -10291,9 +9955,8 @@
       <c r="T331" s="1"/>
       <c r="U331" s="1"/>
       <c r="V331" s="1"/>
-      <c r="W331" s="1"/>
-    </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="332" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>17</v>
       </c>
@@ -10320,9 +9983,8 @@
       <c r="T332" s="3"/>
       <c r="U332" s="3"/>
       <c r="V332" s="3"/>
-      <c r="W332" s="3"/>
-    </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="333" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>17</v>
       </c>
@@ -10349,9 +10011,8 @@
       <c r="T333" s="1"/>
       <c r="U333" s="1"/>
       <c r="V333" s="1"/>
-      <c r="W333" s="1"/>
-    </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="334" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>17</v>
       </c>
@@ -10378,9 +10039,8 @@
       <c r="T334" s="3"/>
       <c r="U334" s="3"/>
       <c r="V334" s="3"/>
-      <c r="W334" s="3"/>
-    </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="335" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>17</v>
       </c>
@@ -10407,9 +10067,8 @@
       <c r="T335" s="1"/>
       <c r="U335" s="1"/>
       <c r="V335" s="1"/>
-      <c r="W335" s="1"/>
-    </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="336" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>17</v>
       </c>
@@ -10436,9 +10095,8 @@
       <c r="T336" s="3"/>
       <c r="U336" s="3"/>
       <c r="V336" s="3"/>
-      <c r="W336" s="3"/>
-    </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="337" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>17</v>
       </c>
@@ -10465,9 +10123,8 @@
       <c r="T337" s="1"/>
       <c r="U337" s="1"/>
       <c r="V337" s="1"/>
-      <c r="W337" s="1"/>
-    </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="338" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <v>17</v>
       </c>
@@ -10494,9 +10151,8 @@
       <c r="T338" s="3"/>
       <c r="U338" s="3"/>
       <c r="V338" s="3"/>
-      <c r="W338" s="3"/>
-    </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="339" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>17</v>
       </c>
@@ -10523,9 +10179,8 @@
       <c r="T339" s="1"/>
       <c r="U339" s="1"/>
       <c r="V339" s="1"/>
-      <c r="W339" s="1"/>
-    </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="340" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <v>17</v>
       </c>
@@ -10552,9 +10207,8 @@
       <c r="T340" s="3"/>
       <c r="U340" s="3"/>
       <c r="V340" s="3"/>
-      <c r="W340" s="3"/>
-    </row>
-    <row r="341" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="341" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="5">
         <v>17</v>
       </c>
@@ -10581,9 +10235,8 @@
       <c r="T341" s="5"/>
       <c r="U341" s="5"/>
       <c r="V341" s="5"/>
-      <c r="W341" s="5"/>
-    </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="342" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
         <v>18</v>
       </c>
@@ -10610,9 +10263,8 @@
       <c r="T342" s="4"/>
       <c r="U342" s="4"/>
       <c r="V342" s="4"/>
-      <c r="W342" s="4"/>
-    </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="343" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>18</v>
       </c>
@@ -10639,9 +10291,8 @@
       <c r="T343" s="1"/>
       <c r="U343" s="1"/>
       <c r="V343" s="1"/>
-      <c r="W343" s="1"/>
-    </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <v>18</v>
       </c>
@@ -10668,9 +10319,8 @@
       <c r="T344" s="3"/>
       <c r="U344" s="3"/>
       <c r="V344" s="3"/>
-      <c r="W344" s="3"/>
-    </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="345" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>18</v>
       </c>
@@ -10697,9 +10347,8 @@
       <c r="T345" s="1"/>
       <c r="U345" s="1"/>
       <c r="V345" s="1"/>
-      <c r="W345" s="1"/>
-    </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
         <v>18</v>
       </c>
@@ -10726,9 +10375,8 @@
       <c r="T346" s="3"/>
       <c r="U346" s="3"/>
       <c r="V346" s="3"/>
-      <c r="W346" s="3"/>
-    </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="347" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>18</v>
       </c>
@@ -10755,9 +10403,8 @@
       <c r="T347" s="1"/>
       <c r="U347" s="1"/>
       <c r="V347" s="1"/>
-      <c r="W347" s="1"/>
-    </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="348" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
         <v>18</v>
       </c>
@@ -10784,9 +10431,8 @@
       <c r="T348" s="3"/>
       <c r="U348" s="3"/>
       <c r="V348" s="3"/>
-      <c r="W348" s="3"/>
-    </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="349" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>18</v>
       </c>
@@ -10813,9 +10459,8 @@
       <c r="T349" s="1"/>
       <c r="U349" s="1"/>
       <c r="V349" s="1"/>
-      <c r="W349" s="1"/>
-    </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="350" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
         <v>18</v>
       </c>
@@ -10842,9 +10487,8 @@
       <c r="T350" s="3"/>
       <c r="U350" s="3"/>
       <c r="V350" s="3"/>
-      <c r="W350" s="3"/>
-    </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="351" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>18</v>
       </c>
@@ -10871,9 +10515,8 @@
       <c r="T351" s="1"/>
       <c r="U351" s="1"/>
       <c r="V351" s="1"/>
-      <c r="W351" s="1"/>
-    </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="352" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>18</v>
       </c>
@@ -10900,9 +10543,8 @@
       <c r="T352" s="3"/>
       <c r="U352" s="3"/>
       <c r="V352" s="3"/>
-      <c r="W352" s="3"/>
-    </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="353" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>18</v>
       </c>
@@ -10929,9 +10571,8 @@
       <c r="T353" s="1"/>
       <c r="U353" s="1"/>
       <c r="V353" s="1"/>
-      <c r="W353" s="1"/>
-    </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="354" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A354" s="3">
         <v>18</v>
       </c>
@@ -10958,9 +10599,8 @@
       <c r="T354" s="3"/>
       <c r="U354" s="3"/>
       <c r="V354" s="3"/>
-      <c r="W354" s="3"/>
-    </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="355" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>18</v>
       </c>
@@ -10987,9 +10627,8 @@
       <c r="T355" s="1"/>
       <c r="U355" s="1"/>
       <c r="V355" s="1"/>
-      <c r="W355" s="1"/>
-    </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="356" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
         <v>18</v>
       </c>
@@ -11016,9 +10655,8 @@
       <c r="T356" s="3"/>
       <c r="U356" s="3"/>
       <c r="V356" s="3"/>
-      <c r="W356" s="3"/>
-    </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="357" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>18</v>
       </c>
@@ -11045,9 +10683,8 @@
       <c r="T357" s="1"/>
       <c r="U357" s="1"/>
       <c r="V357" s="1"/>
-      <c r="W357" s="1"/>
-    </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="358" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
         <v>18</v>
       </c>
@@ -11074,9 +10711,8 @@
       <c r="T358" s="3"/>
       <c r="U358" s="3"/>
       <c r="V358" s="3"/>
-      <c r="W358" s="3"/>
-    </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="359" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>18</v>
       </c>
@@ -11103,9 +10739,8 @@
       <c r="T359" s="1"/>
       <c r="U359" s="1"/>
       <c r="V359" s="1"/>
-      <c r="W359" s="1"/>
-    </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="360" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
         <v>18</v>
       </c>
@@ -11132,9 +10767,8 @@
       <c r="T360" s="3"/>
       <c r="U360" s="3"/>
       <c r="V360" s="3"/>
-      <c r="W360" s="3"/>
-    </row>
-    <row r="361" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="361" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="5">
         <v>18</v>
       </c>
@@ -11161,9 +10795,8 @@
       <c r="T361" s="5"/>
       <c r="U361" s="5"/>
       <c r="V361" s="5"/>
-      <c r="W361" s="5"/>
-    </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="362" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
         <v>19</v>
       </c>
@@ -11190,9 +10823,8 @@
       <c r="T362" s="4"/>
       <c r="U362" s="4"/>
       <c r="V362" s="4"/>
-      <c r="W362" s="4"/>
-    </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="363" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>19</v>
       </c>
@@ -11219,9 +10851,8 @@
       <c r="T363" s="1"/>
       <c r="U363" s="1"/>
       <c r="V363" s="1"/>
-      <c r="W363" s="1"/>
-    </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="364" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
         <v>19</v>
       </c>
@@ -11248,9 +10879,8 @@
       <c r="T364" s="3"/>
       <c r="U364" s="3"/>
       <c r="V364" s="3"/>
-      <c r="W364" s="3"/>
-    </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="365" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>19</v>
       </c>
@@ -11277,9 +10907,8 @@
       <c r="T365" s="1"/>
       <c r="U365" s="1"/>
       <c r="V365" s="1"/>
-      <c r="W365" s="1"/>
-    </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="366" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
         <v>19</v>
       </c>
@@ -11306,9 +10935,8 @@
       <c r="T366" s="3"/>
       <c r="U366" s="3"/>
       <c r="V366" s="3"/>
-      <c r="W366" s="3"/>
-    </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="367" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>19</v>
       </c>
@@ -11335,9 +10963,8 @@
       <c r="T367" s="1"/>
       <c r="U367" s="1"/>
       <c r="V367" s="1"/>
-      <c r="W367" s="1"/>
-    </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="368" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
         <v>19</v>
       </c>
@@ -11364,9 +10991,8 @@
       <c r="T368" s="3"/>
       <c r="U368" s="3"/>
       <c r="V368" s="3"/>
-      <c r="W368" s="3"/>
-    </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="369" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>19</v>
       </c>
@@ -11393,9 +11019,8 @@
       <c r="T369" s="1"/>
       <c r="U369" s="1"/>
       <c r="V369" s="1"/>
-      <c r="W369" s="1"/>
-    </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="370" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
         <v>19</v>
       </c>
@@ -11422,9 +11047,8 @@
       <c r="T370" s="3"/>
       <c r="U370" s="3"/>
       <c r="V370" s="3"/>
-      <c r="W370" s="3"/>
-    </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="371" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>19</v>
       </c>
@@ -11451,9 +11075,8 @@
       <c r="T371" s="1"/>
       <c r="U371" s="1"/>
       <c r="V371" s="1"/>
-      <c r="W371" s="1"/>
-    </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="372" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
         <v>19</v>
       </c>
@@ -11480,9 +11103,8 @@
       <c r="T372" s="3"/>
       <c r="U372" s="3"/>
       <c r="V372" s="3"/>
-      <c r="W372" s="3"/>
-    </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="373" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>19</v>
       </c>
@@ -11509,9 +11131,8 @@
       <c r="T373" s="1"/>
       <c r="U373" s="1"/>
       <c r="V373" s="1"/>
-      <c r="W373" s="1"/>
-    </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="374" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
         <v>19</v>
       </c>
@@ -11538,9 +11159,8 @@
       <c r="T374" s="3"/>
       <c r="U374" s="3"/>
       <c r="V374" s="3"/>
-      <c r="W374" s="3"/>
-    </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="375" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>19</v>
       </c>
@@ -11567,9 +11187,8 @@
       <c r="T375" s="1"/>
       <c r="U375" s="1"/>
       <c r="V375" s="1"/>
-      <c r="W375" s="1"/>
-    </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="376" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
         <v>19</v>
       </c>
@@ -11596,9 +11215,8 @@
       <c r="T376" s="3"/>
       <c r="U376" s="3"/>
       <c r="V376" s="3"/>
-      <c r="W376" s="3"/>
-    </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="377" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>19</v>
       </c>
@@ -11625,9 +11243,8 @@
       <c r="T377" s="1"/>
       <c r="U377" s="1"/>
       <c r="V377" s="1"/>
-      <c r="W377" s="1"/>
-    </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="378" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
         <v>19</v>
       </c>
@@ -11654,9 +11271,8 @@
       <c r="T378" s="3"/>
       <c r="U378" s="3"/>
       <c r="V378" s="3"/>
-      <c r="W378" s="3"/>
-    </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="379" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>19</v>
       </c>
@@ -11683,9 +11299,8 @@
       <c r="T379" s="1"/>
       <c r="U379" s="1"/>
       <c r="V379" s="1"/>
-      <c r="W379" s="1"/>
-    </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="380" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A380" s="3">
         <v>19</v>
       </c>
@@ -11712,9 +11327,8 @@
       <c r="T380" s="3"/>
       <c r="U380" s="3"/>
       <c r="V380" s="3"/>
-      <c r="W380" s="3"/>
-    </row>
-    <row r="381" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="381" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A381" s="5">
         <v>19</v>
       </c>
@@ -11741,9 +11355,8 @@
       <c r="T381" s="5"/>
       <c r="U381" s="5"/>
       <c r="V381" s="5"/>
-      <c r="W381" s="5"/>
-    </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="382" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
         <v>20</v>
       </c>
@@ -11770,9 +11383,8 @@
       <c r="T382" s="4"/>
       <c r="U382" s="4"/>
       <c r="V382" s="4"/>
-      <c r="W382" s="4"/>
-    </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="383" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>20</v>
       </c>
@@ -11799,9 +11411,8 @@
       <c r="T383" s="1"/>
       <c r="U383" s="1"/>
       <c r="V383" s="1"/>
-      <c r="W383" s="1"/>
-    </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="384" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
         <v>20</v>
       </c>
@@ -11828,9 +11439,8 @@
       <c r="T384" s="3"/>
       <c r="U384" s="3"/>
       <c r="V384" s="3"/>
-      <c r="W384" s="3"/>
-    </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="385" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>20</v>
       </c>
@@ -11857,9 +11467,8 @@
       <c r="T385" s="1"/>
       <c r="U385" s="1"/>
       <c r="V385" s="1"/>
-      <c r="W385" s="1"/>
-    </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="386" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A386" s="3">
         <v>20</v>
       </c>
@@ -11886,9 +11495,8 @@
       <c r="T386" s="3"/>
       <c r="U386" s="3"/>
       <c r="V386" s="3"/>
-      <c r="W386" s="3"/>
-    </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="387" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>20</v>
       </c>
@@ -11915,9 +11523,8 @@
       <c r="T387" s="1"/>
       <c r="U387" s="1"/>
       <c r="V387" s="1"/>
-      <c r="W387" s="1"/>
-    </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="388" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
         <v>20</v>
       </c>
@@ -11944,9 +11551,8 @@
       <c r="T388" s="3"/>
       <c r="U388" s="3"/>
       <c r="V388" s="3"/>
-      <c r="W388" s="3"/>
-    </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="389" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>20</v>
       </c>
@@ -11973,9 +11579,8 @@
       <c r="T389" s="1"/>
       <c r="U389" s="1"/>
       <c r="V389" s="1"/>
-      <c r="W389" s="1"/>
-    </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="390" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A390" s="3">
         <v>20</v>
       </c>
@@ -12002,9 +11607,8 @@
       <c r="T390" s="3"/>
       <c r="U390" s="3"/>
       <c r="V390" s="3"/>
-      <c r="W390" s="3"/>
-    </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="391" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>20</v>
       </c>
@@ -12031,9 +11635,8 @@
       <c r="T391" s="1"/>
       <c r="U391" s="1"/>
       <c r="V391" s="1"/>
-      <c r="W391" s="1"/>
-    </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="392" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
         <v>20</v>
       </c>
@@ -12060,9 +11663,8 @@
       <c r="T392" s="3"/>
       <c r="U392" s="3"/>
       <c r="V392" s="3"/>
-      <c r="W392" s="3"/>
-    </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="393" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>20</v>
       </c>
@@ -12089,9 +11691,8 @@
       <c r="T393" s="1"/>
       <c r="U393" s="1"/>
       <c r="V393" s="1"/>
-      <c r="W393" s="1"/>
-    </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="394" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A394" s="3">
         <v>20</v>
       </c>
@@ -12118,9 +11719,8 @@
       <c r="T394" s="3"/>
       <c r="U394" s="3"/>
       <c r="V394" s="3"/>
-      <c r="W394" s="3"/>
-    </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="395" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>20</v>
       </c>
@@ -12147,9 +11747,8 @@
       <c r="T395" s="1"/>
       <c r="U395" s="1"/>
       <c r="V395" s="1"/>
-      <c r="W395" s="1"/>
-    </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="396" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A396" s="3">
         <v>20</v>
       </c>
@@ -12176,9 +11775,8 @@
       <c r="T396" s="3"/>
       <c r="U396" s="3"/>
       <c r="V396" s="3"/>
-      <c r="W396" s="3"/>
-    </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="397" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>20</v>
       </c>
@@ -12205,9 +11803,8 @@
       <c r="T397" s="1"/>
       <c r="U397" s="1"/>
       <c r="V397" s="1"/>
-      <c r="W397" s="1"/>
-    </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="398" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A398" s="3">
         <v>20</v>
       </c>
@@ -12234,9 +11831,8 @@
       <c r="T398" s="3"/>
       <c r="U398" s="3"/>
       <c r="V398" s="3"/>
-      <c r="W398" s="3"/>
-    </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="399" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>20</v>
       </c>
@@ -12263,9 +11859,8 @@
       <c r="T399" s="1"/>
       <c r="U399" s="1"/>
       <c r="V399" s="1"/>
-      <c r="W399" s="1"/>
-    </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="400" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A400" s="3">
         <v>20</v>
       </c>
@@ -12292,9 +11887,8 @@
       <c r="T400" s="3"/>
       <c r="U400" s="3"/>
       <c r="V400" s="3"/>
-      <c r="W400" s="3"/>
-    </row>
-    <row r="401" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="401" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A401" s="5">
         <v>20</v>
       </c>
@@ -12321,9 +11915,8 @@
       <c r="T401" s="5"/>
       <c r="U401" s="5"/>
       <c r="V401" s="5"/>
-      <c r="W401" s="5"/>
-    </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="402" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A402" s="4">
         <v>21</v>
       </c>
@@ -12350,9 +11943,8 @@
       <c r="T402" s="4"/>
       <c r="U402" s="4"/>
       <c r="V402" s="4"/>
-      <c r="W402" s="4"/>
-    </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="403" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>21</v>
       </c>
@@ -12379,9 +11971,8 @@
       <c r="T403" s="1"/>
       <c r="U403" s="1"/>
       <c r="V403" s="1"/>
-      <c r="W403" s="1"/>
-    </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="404" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A404" s="3">
         <v>21</v>
       </c>
@@ -12408,9 +11999,8 @@
       <c r="T404" s="3"/>
       <c r="U404" s="3"/>
       <c r="V404" s="3"/>
-      <c r="W404" s="3"/>
-    </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="405" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>21</v>
       </c>
@@ -12437,9 +12027,8 @@
       <c r="T405" s="1"/>
       <c r="U405" s="1"/>
       <c r="V405" s="1"/>
-      <c r="W405" s="1"/>
-    </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="406" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A406" s="3">
         <v>21</v>
       </c>
@@ -12466,9 +12055,8 @@
       <c r="T406" s="3"/>
       <c r="U406" s="3"/>
       <c r="V406" s="3"/>
-      <c r="W406" s="3"/>
-    </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="407" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>21</v>
       </c>
@@ -12495,9 +12083,8 @@
       <c r="T407" s="1"/>
       <c r="U407" s="1"/>
       <c r="V407" s="1"/>
-      <c r="W407" s="1"/>
-    </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="408" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A408" s="3">
         <v>21</v>
       </c>
@@ -12524,9 +12111,8 @@
       <c r="T408" s="3"/>
       <c r="U408" s="3"/>
       <c r="V408" s="3"/>
-      <c r="W408" s="3"/>
-    </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="409" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>21</v>
       </c>
@@ -12553,9 +12139,8 @@
       <c r="T409" s="1"/>
       <c r="U409" s="1"/>
       <c r="V409" s="1"/>
-      <c r="W409" s="1"/>
-    </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="410" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A410" s="3">
         <v>21</v>
       </c>
@@ -12582,9 +12167,8 @@
       <c r="T410" s="3"/>
       <c r="U410" s="3"/>
       <c r="V410" s="3"/>
-      <c r="W410" s="3"/>
-    </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="411" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>21</v>
       </c>
@@ -12611,9 +12195,8 @@
       <c r="T411" s="1"/>
       <c r="U411" s="1"/>
       <c r="V411" s="1"/>
-      <c r="W411" s="1"/>
-    </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="412" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A412" s="3">
         <v>21</v>
       </c>
@@ -12640,9 +12223,8 @@
       <c r="T412" s="3"/>
       <c r="U412" s="3"/>
       <c r="V412" s="3"/>
-      <c r="W412" s="3"/>
-    </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="413" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>21</v>
       </c>
@@ -12669,9 +12251,8 @@
       <c r="T413" s="1"/>
       <c r="U413" s="1"/>
       <c r="V413" s="1"/>
-      <c r="W413" s="1"/>
-    </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="414" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
         <v>21</v>
       </c>
@@ -12698,9 +12279,8 @@
       <c r="T414" s="3"/>
       <c r="U414" s="3"/>
       <c r="V414" s="3"/>
-      <c r="W414" s="3"/>
-    </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="415" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>21</v>
       </c>
@@ -12727,9 +12307,8 @@
       <c r="T415" s="1"/>
       <c r="U415" s="1"/>
       <c r="V415" s="1"/>
-      <c r="W415" s="1"/>
-    </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="416" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A416" s="3">
         <v>21</v>
       </c>
@@ -12756,9 +12335,8 @@
       <c r="T416" s="3"/>
       <c r="U416" s="3"/>
       <c r="V416" s="3"/>
-      <c r="W416" s="3"/>
-    </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="417" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>21</v>
       </c>
@@ -12785,9 +12363,8 @@
       <c r="T417" s="1"/>
       <c r="U417" s="1"/>
       <c r="V417" s="1"/>
-      <c r="W417" s="1"/>
-    </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="418" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A418" s="3">
         <v>21</v>
       </c>
@@ -12814,9 +12391,8 @@
       <c r="T418" s="3"/>
       <c r="U418" s="3"/>
       <c r="V418" s="3"/>
-      <c r="W418" s="3"/>
-    </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="419" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>21</v>
       </c>
@@ -12843,9 +12419,8 @@
       <c r="T419" s="1"/>
       <c r="U419" s="1"/>
       <c r="V419" s="1"/>
-      <c r="W419" s="1"/>
-    </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="420" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A420" s="3">
         <v>21</v>
       </c>
@@ -12872,9 +12447,8 @@
       <c r="T420" s="3"/>
       <c r="U420" s="3"/>
       <c r="V420" s="3"/>
-      <c r="W420" s="3"/>
-    </row>
-    <row r="421" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="421" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A421" s="5">
         <v>21</v>
       </c>
@@ -12901,9 +12475,8 @@
       <c r="T421" s="5"/>
       <c r="U421" s="5"/>
       <c r="V421" s="5"/>
-      <c r="W421" s="5"/>
-    </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="422" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A422" s="4">
         <v>22</v>
       </c>
@@ -12930,9 +12503,8 @@
       <c r="T422" s="4"/>
       <c r="U422" s="4"/>
       <c r="V422" s="4"/>
-      <c r="W422" s="4"/>
-    </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="423" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>22</v>
       </c>
@@ -12959,9 +12531,8 @@
       <c r="T423" s="1"/>
       <c r="U423" s="1"/>
       <c r="V423" s="1"/>
-      <c r="W423" s="1"/>
-    </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="424" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A424" s="3">
         <v>22</v>
       </c>
@@ -12988,9 +12559,8 @@
       <c r="T424" s="3"/>
       <c r="U424" s="3"/>
       <c r="V424" s="3"/>
-      <c r="W424" s="3"/>
-    </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="425" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>22</v>
       </c>
@@ -13017,9 +12587,8 @@
       <c r="T425" s="1"/>
       <c r="U425" s="1"/>
       <c r="V425" s="1"/>
-      <c r="W425" s="1"/>
-    </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="426" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A426" s="3">
         <v>22</v>
       </c>
@@ -13046,9 +12615,8 @@
       <c r="T426" s="3"/>
       <c r="U426" s="3"/>
       <c r="V426" s="3"/>
-      <c r="W426" s="3"/>
-    </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="427" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>22</v>
       </c>
@@ -13075,9 +12643,8 @@
       <c r="T427" s="1"/>
       <c r="U427" s="1"/>
       <c r="V427" s="1"/>
-      <c r="W427" s="1"/>
-    </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="428" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A428" s="3">
         <v>22</v>
       </c>
@@ -13104,9 +12671,8 @@
       <c r="T428" s="3"/>
       <c r="U428" s="3"/>
       <c r="V428" s="3"/>
-      <c r="W428" s="3"/>
-    </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="429" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>22</v>
       </c>
@@ -13133,9 +12699,8 @@
       <c r="T429" s="1"/>
       <c r="U429" s="1"/>
       <c r="V429" s="1"/>
-      <c r="W429" s="1"/>
-    </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="430" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A430" s="3">
         <v>22</v>
       </c>
@@ -13162,9 +12727,8 @@
       <c r="T430" s="3"/>
       <c r="U430" s="3"/>
       <c r="V430" s="3"/>
-      <c r="W430" s="3"/>
-    </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="431" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>22</v>
       </c>
@@ -13191,9 +12755,8 @@
       <c r="T431" s="1"/>
       <c r="U431" s="1"/>
       <c r="V431" s="1"/>
-      <c r="W431" s="1"/>
-    </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="432" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A432" s="3">
         <v>22</v>
       </c>
@@ -13220,9 +12783,8 @@
       <c r="T432" s="3"/>
       <c r="U432" s="3"/>
       <c r="V432" s="3"/>
-      <c r="W432" s="3"/>
-    </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="433" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>22</v>
       </c>
@@ -13249,9 +12811,8 @@
       <c r="T433" s="1"/>
       <c r="U433" s="1"/>
       <c r="V433" s="1"/>
-      <c r="W433" s="1"/>
-    </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="434" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A434" s="3">
         <v>22</v>
       </c>
@@ -13278,9 +12839,8 @@
       <c r="T434" s="3"/>
       <c r="U434" s="3"/>
       <c r="V434" s="3"/>
-      <c r="W434" s="3"/>
-    </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="435" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>22</v>
       </c>
@@ -13307,9 +12867,8 @@
       <c r="T435" s="1"/>
       <c r="U435" s="1"/>
       <c r="V435" s="1"/>
-      <c r="W435" s="1"/>
-    </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="436" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A436" s="3">
         <v>22</v>
       </c>
@@ -13336,9 +12895,8 @@
       <c r="T436" s="3"/>
       <c r="U436" s="3"/>
       <c r="V436" s="3"/>
-      <c r="W436" s="3"/>
-    </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="437" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>22</v>
       </c>
@@ -13365,9 +12923,8 @@
       <c r="T437" s="1"/>
       <c r="U437" s="1"/>
       <c r="V437" s="1"/>
-      <c r="W437" s="1"/>
-    </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="438" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A438" s="3">
         <v>22</v>
       </c>
@@ -13394,9 +12951,8 @@
       <c r="T438" s="3"/>
       <c r="U438" s="3"/>
       <c r="V438" s="3"/>
-      <c r="W438" s="3"/>
-    </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="439" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>22</v>
       </c>
@@ -13423,9 +12979,8 @@
       <c r="T439" s="1"/>
       <c r="U439" s="1"/>
       <c r="V439" s="1"/>
-      <c r="W439" s="1"/>
-    </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="440" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A440" s="3">
         <v>22</v>
       </c>
@@ -13452,9 +13007,8 @@
       <c r="T440" s="3"/>
       <c r="U440" s="3"/>
       <c r="V440" s="3"/>
-      <c r="W440" s="3"/>
-    </row>
-    <row r="441" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="441" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A441" s="5">
         <v>22</v>
       </c>
@@ -13481,9 +13035,8 @@
       <c r="T441" s="5"/>
       <c r="U441" s="5"/>
       <c r="V441" s="5"/>
-      <c r="W441" s="5"/>
-    </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="442" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A442" s="4">
         <v>23</v>
       </c>
@@ -13510,9 +13063,8 @@
       <c r="T442" s="4"/>
       <c r="U442" s="4"/>
       <c r="V442" s="4"/>
-      <c r="W442" s="4"/>
-    </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="443" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>23</v>
       </c>
@@ -13539,9 +13091,8 @@
       <c r="T443" s="1"/>
       <c r="U443" s="1"/>
       <c r="V443" s="1"/>
-      <c r="W443" s="1"/>
-    </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="444" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A444" s="3">
         <v>23</v>
       </c>
@@ -13568,9 +13119,8 @@
       <c r="T444" s="3"/>
       <c r="U444" s="3"/>
       <c r="V444" s="3"/>
-      <c r="W444" s="3"/>
-    </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="445" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>23</v>
       </c>
@@ -13597,9 +13147,8 @@
       <c r="T445" s="1"/>
       <c r="U445" s="1"/>
       <c r="V445" s="1"/>
-      <c r="W445" s="1"/>
-    </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="446" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A446" s="3">
         <v>23</v>
       </c>
@@ -13626,9 +13175,8 @@
       <c r="T446" s="3"/>
       <c r="U446" s="3"/>
       <c r="V446" s="3"/>
-      <c r="W446" s="3"/>
-    </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="447" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>23</v>
       </c>
@@ -13655,9 +13203,8 @@
       <c r="T447" s="1"/>
       <c r="U447" s="1"/>
       <c r="V447" s="1"/>
-      <c r="W447" s="1"/>
-    </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="448" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A448" s="3">
         <v>23</v>
       </c>
@@ -13684,9 +13231,8 @@
       <c r="T448" s="3"/>
       <c r="U448" s="3"/>
       <c r="V448" s="3"/>
-      <c r="W448" s="3"/>
-    </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="449" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>23</v>
       </c>
@@ -13713,9 +13259,8 @@
       <c r="T449" s="1"/>
       <c r="U449" s="1"/>
       <c r="V449" s="1"/>
-      <c r="W449" s="1"/>
-    </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="450" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A450" s="3">
         <v>23</v>
       </c>
@@ -13742,9 +13287,8 @@
       <c r="T450" s="3"/>
       <c r="U450" s="3"/>
       <c r="V450" s="3"/>
-      <c r="W450" s="3"/>
-    </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="451" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>23</v>
       </c>
@@ -13771,9 +13315,8 @@
       <c r="T451" s="1"/>
       <c r="U451" s="1"/>
       <c r="V451" s="1"/>
-      <c r="W451" s="1"/>
-    </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="452" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A452" s="3">
         <v>23</v>
       </c>
@@ -13800,9 +13343,8 @@
       <c r="T452" s="3"/>
       <c r="U452" s="3"/>
       <c r="V452" s="3"/>
-      <c r="W452" s="3"/>
-    </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="453" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>23</v>
       </c>
@@ -13829,9 +13371,8 @@
       <c r="T453" s="1"/>
       <c r="U453" s="1"/>
       <c r="V453" s="1"/>
-      <c r="W453" s="1"/>
-    </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="454" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A454" s="3">
         <v>23</v>
       </c>
@@ -13858,9 +13399,8 @@
       <c r="T454" s="3"/>
       <c r="U454" s="3"/>
       <c r="V454" s="3"/>
-      <c r="W454" s="3"/>
-    </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="455" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>23</v>
       </c>
@@ -13887,9 +13427,8 @@
       <c r="T455" s="1"/>
       <c r="U455" s="1"/>
       <c r="V455" s="1"/>
-      <c r="W455" s="1"/>
-    </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="456" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A456" s="3">
         <v>23</v>
       </c>
@@ -13916,9 +13455,8 @@
       <c r="T456" s="3"/>
       <c r="U456" s="3"/>
       <c r="V456" s="3"/>
-      <c r="W456" s="3"/>
-    </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="457" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>23</v>
       </c>
@@ -13945,9 +13483,8 @@
       <c r="T457" s="1"/>
       <c r="U457" s="1"/>
       <c r="V457" s="1"/>
-      <c r="W457" s="1"/>
-    </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="458" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A458" s="3">
         <v>23</v>
       </c>
@@ -13974,9 +13511,8 @@
       <c r="T458" s="3"/>
       <c r="U458" s="3"/>
       <c r="V458" s="3"/>
-      <c r="W458" s="3"/>
-    </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="459" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>23</v>
       </c>
@@ -14003,9 +13539,8 @@
       <c r="T459" s="1"/>
       <c r="U459" s="1"/>
       <c r="V459" s="1"/>
-      <c r="W459" s="1"/>
-    </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="460" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A460" s="3">
         <v>23</v>
       </c>
@@ -14032,9 +13567,8 @@
       <c r="T460" s="3"/>
       <c r="U460" s="3"/>
       <c r="V460" s="3"/>
-      <c r="W460" s="3"/>
-    </row>
-    <row r="461" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="461" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A461" s="5">
         <v>23</v>
       </c>
@@ -14061,9 +13595,8 @@
       <c r="T461" s="5"/>
       <c r="U461" s="5"/>
       <c r="V461" s="5"/>
-      <c r="W461" s="5"/>
-    </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="462" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A462" s="4">
         <v>24</v>
       </c>
@@ -14090,9 +13623,8 @@
       <c r="T462" s="4"/>
       <c r="U462" s="4"/>
       <c r="V462" s="4"/>
-      <c r="W462" s="4"/>
-    </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="463" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>24</v>
       </c>
@@ -14119,9 +13651,8 @@
       <c r="T463" s="1"/>
       <c r="U463" s="1"/>
       <c r="V463" s="1"/>
-      <c r="W463" s="1"/>
-    </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="464" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A464" s="3">
         <v>24</v>
       </c>
@@ -14148,9 +13679,8 @@
       <c r="T464" s="3"/>
       <c r="U464" s="3"/>
       <c r="V464" s="3"/>
-      <c r="W464" s="3"/>
-    </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="465" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>24</v>
       </c>
@@ -14177,9 +13707,8 @@
       <c r="T465" s="1"/>
       <c r="U465" s="1"/>
       <c r="V465" s="1"/>
-      <c r="W465" s="1"/>
-    </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="466" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A466" s="3">
         <v>24</v>
       </c>
@@ -14206,9 +13735,8 @@
       <c r="T466" s="3"/>
       <c r="U466" s="3"/>
       <c r="V466" s="3"/>
-      <c r="W466" s="3"/>
-    </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="467" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>24</v>
       </c>
@@ -14235,9 +13763,8 @@
       <c r="T467" s="1"/>
       <c r="U467" s="1"/>
       <c r="V467" s="1"/>
-      <c r="W467" s="1"/>
-    </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="468" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A468" s="3">
         <v>24</v>
       </c>
@@ -14264,9 +13791,8 @@
       <c r="T468" s="3"/>
       <c r="U468" s="3"/>
       <c r="V468" s="3"/>
-      <c r="W468" s="3"/>
-    </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="469" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>24</v>
       </c>
@@ -14293,9 +13819,8 @@
       <c r="T469" s="1"/>
       <c r="U469" s="1"/>
       <c r="V469" s="1"/>
-      <c r="W469" s="1"/>
-    </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="470" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A470" s="3">
         <v>24</v>
       </c>
@@ -14322,9 +13847,8 @@
       <c r="T470" s="3"/>
       <c r="U470" s="3"/>
       <c r="V470" s="3"/>
-      <c r="W470" s="3"/>
-    </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="471" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>24</v>
       </c>
@@ -14351,9 +13875,8 @@
       <c r="T471" s="1"/>
       <c r="U471" s="1"/>
       <c r="V471" s="1"/>
-      <c r="W471" s="1"/>
-    </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="472" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A472" s="3">
         <v>24</v>
       </c>
@@ -14380,9 +13903,8 @@
       <c r="T472" s="3"/>
       <c r="U472" s="3"/>
       <c r="V472" s="3"/>
-      <c r="W472" s="3"/>
-    </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="473" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>24</v>
       </c>
@@ -14409,9 +13931,8 @@
       <c r="T473" s="1"/>
       <c r="U473" s="1"/>
       <c r="V473" s="1"/>
-      <c r="W473" s="1"/>
-    </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="474" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A474" s="3">
         <v>24</v>
       </c>
@@ -14438,9 +13959,8 @@
       <c r="T474" s="3"/>
       <c r="U474" s="3"/>
       <c r="V474" s="3"/>
-      <c r="W474" s="3"/>
-    </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="475" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>24</v>
       </c>
@@ -14467,9 +13987,8 @@
       <c r="T475" s="1"/>
       <c r="U475" s="1"/>
       <c r="V475" s="1"/>
-      <c r="W475" s="1"/>
-    </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="476" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A476" s="3">
         <v>24</v>
       </c>
@@ -14496,9 +14015,8 @@
       <c r="T476" s="3"/>
       <c r="U476" s="3"/>
       <c r="V476" s="3"/>
-      <c r="W476" s="3"/>
-    </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="477" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>24</v>
       </c>
@@ -14525,9 +14043,8 @@
       <c r="T477" s="1"/>
       <c r="U477" s="1"/>
       <c r="V477" s="1"/>
-      <c r="W477" s="1"/>
-    </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="478" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A478" s="3">
         <v>24</v>
       </c>
@@ -14554,9 +14071,8 @@
       <c r="T478" s="3"/>
       <c r="U478" s="3"/>
       <c r="V478" s="3"/>
-      <c r="W478" s="3"/>
-    </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="479" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>24</v>
       </c>
@@ -14583,9 +14099,8 @@
       <c r="T479" s="1"/>
       <c r="U479" s="1"/>
       <c r="V479" s="1"/>
-      <c r="W479" s="1"/>
-    </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="480" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A480" s="3">
         <v>24</v>
       </c>
@@ -14612,9 +14127,8 @@
       <c r="T480" s="3"/>
       <c r="U480" s="3"/>
       <c r="V480" s="3"/>
-      <c r="W480" s="3"/>
-    </row>
-    <row r="481" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="481" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A481" s="5">
         <v>24</v>
       </c>
@@ -14641,9 +14155,8 @@
       <c r="T481" s="5"/>
       <c r="U481" s="5"/>
       <c r="V481" s="5"/>
-      <c r="W481" s="5"/>
-    </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="482" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A482" s="4">
         <v>25</v>
       </c>
@@ -14670,9 +14183,8 @@
       <c r="T482" s="4"/>
       <c r="U482" s="4"/>
       <c r="V482" s="4"/>
-      <c r="W482" s="4"/>
-    </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="483" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>25</v>
       </c>
@@ -14699,9 +14211,8 @@
       <c r="T483" s="1"/>
       <c r="U483" s="1"/>
       <c r="V483" s="1"/>
-      <c r="W483" s="1"/>
-    </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="484" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A484" s="3">
         <v>25</v>
       </c>
@@ -14728,9 +14239,8 @@
       <c r="T484" s="3"/>
       <c r="U484" s="3"/>
       <c r="V484" s="3"/>
-      <c r="W484" s="3"/>
-    </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="485" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>25</v>
       </c>
@@ -14757,9 +14267,8 @@
       <c r="T485" s="1"/>
       <c r="U485" s="1"/>
       <c r="V485" s="1"/>
-      <c r="W485" s="1"/>
-    </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="486" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A486" s="3">
         <v>25</v>
       </c>
@@ -14786,9 +14295,8 @@
       <c r="T486" s="3"/>
       <c r="U486" s="3"/>
       <c r="V486" s="3"/>
-      <c r="W486" s="3"/>
-    </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="487" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>25</v>
       </c>
@@ -14815,9 +14323,8 @@
       <c r="T487" s="1"/>
       <c r="U487" s="1"/>
       <c r="V487" s="1"/>
-      <c r="W487" s="1"/>
-    </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="488" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A488" s="3">
         <v>25</v>
       </c>
@@ -14844,9 +14351,8 @@
       <c r="T488" s="3"/>
       <c r="U488" s="3"/>
       <c r="V488" s="3"/>
-      <c r="W488" s="3"/>
-    </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="489" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>25</v>
       </c>
@@ -14873,9 +14379,8 @@
       <c r="T489" s="1"/>
       <c r="U489" s="1"/>
       <c r="V489" s="1"/>
-      <c r="W489" s="1"/>
-    </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="490" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A490" s="3">
         <v>25</v>
       </c>
@@ -14902,9 +14407,8 @@
       <c r="T490" s="3"/>
       <c r="U490" s="3"/>
       <c r="V490" s="3"/>
-      <c r="W490" s="3"/>
-    </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="491" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>25</v>
       </c>
@@ -14931,9 +14435,8 @@
       <c r="T491" s="1"/>
       <c r="U491" s="1"/>
       <c r="V491" s="1"/>
-      <c r="W491" s="1"/>
-    </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="492" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A492" s="3">
         <v>25</v>
       </c>
@@ -14960,9 +14463,8 @@
       <c r="T492" s="3"/>
       <c r="U492" s="3"/>
       <c r="V492" s="3"/>
-      <c r="W492" s="3"/>
-    </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="493" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>25</v>
       </c>
@@ -14989,9 +14491,8 @@
       <c r="T493" s="1"/>
       <c r="U493" s="1"/>
       <c r="V493" s="1"/>
-      <c r="W493" s="1"/>
-    </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="494" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A494" s="3">
         <v>25</v>
       </c>
@@ -15018,9 +14519,8 @@
       <c r="T494" s="3"/>
       <c r="U494" s="3"/>
       <c r="V494" s="3"/>
-      <c r="W494" s="3"/>
-    </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="495" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>25</v>
       </c>
@@ -15047,9 +14547,8 @@
       <c r="T495" s="1"/>
       <c r="U495" s="1"/>
       <c r="V495" s="1"/>
-      <c r="W495" s="1"/>
-    </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="496" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A496" s="3">
         <v>25</v>
       </c>
@@ -15076,9 +14575,8 @@
       <c r="T496" s="3"/>
       <c r="U496" s="3"/>
       <c r="V496" s="3"/>
-      <c r="W496" s="3"/>
-    </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="497" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>25</v>
       </c>
@@ -15105,9 +14603,8 @@
       <c r="T497" s="1"/>
       <c r="U497" s="1"/>
       <c r="V497" s="1"/>
-      <c r="W497" s="1"/>
-    </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="498" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A498" s="3">
         <v>25</v>
       </c>
@@ -15134,9 +14631,8 @@
       <c r="T498" s="3"/>
       <c r="U498" s="3"/>
       <c r="V498" s="3"/>
-      <c r="W498" s="3"/>
-    </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="499" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>25</v>
       </c>
@@ -15163,9 +14659,8 @@
       <c r="T499" s="1"/>
       <c r="U499" s="1"/>
       <c r="V499" s="1"/>
-      <c r="W499" s="1"/>
-    </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="500" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A500" s="3">
         <v>25</v>
       </c>
@@ -15192,9 +14687,8 @@
       <c r="T500" s="3"/>
       <c r="U500" s="3"/>
       <c r="V500" s="3"/>
-      <c r="W500" s="3"/>
-    </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="501" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>25</v>
       </c>
@@ -15221,10 +14715,9 @@
       <c r="T501" s="1"/>
       <c r="U501" s="1"/>
       <c r="V501" s="1"/>
-      <c r="W501" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:W501">
+  <conditionalFormatting sqref="A2:V501">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>

--- a/mesures_couverts.xlsx
+++ b/mesures_couverts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maral\Desktop\Universite\MASTER1\Q2\LBIRA2130 - Projet disciplinaire\LBIRA2130_Couverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA53AC02-B735-4399-949F-E87ACB18E198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DA2EBD-9E70-4275-BDB6-82B005F96760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{D0C76E02-6240-421E-9415-499825F072BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D0C76E02-6240-421E-9415-499825F072BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Mesures" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="65">
   <si>
     <t>ID_planche</t>
   </si>
@@ -227,6 +227,12 @@
   <si>
     <t>été</t>
   </si>
+  <si>
+    <t>annee_rotation</t>
+  </si>
+  <si>
+    <t>Année de rotation</t>
+  </si>
 </sst>
 </file>
 
@@ -353,21 +359,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -712,33 +704,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206F8975-33D2-4BAA-996D-101D2A201CBE}">
-  <dimension ref="A1:Z501"/>
+  <dimension ref="A1:AA501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.77734375" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="17.33203125" customWidth="1"/>
-    <col min="24" max="24" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.77734375" customWidth="1"/>
-    <col min="26" max="26" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="17.33203125" customWidth="1"/>
+    <col min="25" max="25" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.77734375" customWidth="1"/>
+    <col min="27" max="27" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -758,72 +752,77 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
@@ -853,13 +852,16 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA2" s="3"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
@@ -889,13 +891,16 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
@@ -925,8 +930,9 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -959,8 +965,9 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -993,8 +1000,9 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1027,8 +1035,9 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1061,8 +1070,9 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1095,8 +1105,9 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1129,8 +1140,9 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1163,8 +1175,9 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1197,8 +1210,9 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1231,8 +1245,9 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1265,8 +1280,9 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA14" s="3"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1299,8 +1315,9 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1333,8 +1350,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1367,8 +1385,9 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1401,8 +1420,9 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1435,8 +1455,9 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -1469,8 +1490,9 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-    </row>
-    <row r="21" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA20" s="3"/>
+    </row>
+    <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -1503,8 +1525,9 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA21" s="5"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -1535,8 +1558,9 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA22" s="4"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -1567,8 +1591,9 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -1599,8 +1624,9 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA24" s="3"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -1631,8 +1657,9 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -1663,8 +1690,9 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA26" s="3"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -1695,8 +1723,9 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>2</v>
       </c>
@@ -1727,8 +1756,9 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -1759,8 +1789,9 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -1791,8 +1822,9 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -1823,8 +1855,9 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA31" s="1"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -1855,8 +1888,9 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1887,8 +1921,9 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA33" s="1"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -1919,8 +1954,9 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA34" s="3"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -1951,8 +1987,9 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA35" s="1"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -1983,8 +2020,9 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA36" s="3"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -2015,8 +2053,9 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA37" s="1"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -2047,8 +2086,9 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA38" s="3"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -2079,8 +2119,9 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA39" s="1"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>2</v>
       </c>
@@ -2111,8 +2152,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>2</v>
       </c>
@@ -2143,8 +2185,9 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA41" s="5"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>3</v>
       </c>
@@ -2175,8 +2218,9 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA42" s="4"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>3</v>
       </c>
@@ -2207,8 +2251,9 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA43" s="1"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>3</v>
       </c>
@@ -2239,8 +2284,9 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA44" s="3"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -2271,8 +2317,9 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA45" s="1"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>3</v>
       </c>
@@ -2303,8 +2350,9 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA46" s="3"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -2335,8 +2383,9 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA47" s="1"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>3</v>
       </c>
@@ -2367,8 +2416,9 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA48" s="3"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -2399,8 +2449,9 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA49" s="1"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -2431,8 +2482,9 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA50" s="3"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -2463,8 +2515,9 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA51" s="1"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -2495,8 +2548,9 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA52" s="3"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>3</v>
       </c>
@@ -2527,8 +2581,9 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA53" s="1"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -2559,8 +2614,9 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA54" s="3"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>3</v>
       </c>
@@ -2591,8 +2647,9 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA55" s="1"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -2623,8 +2680,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>3</v>
       </c>
@@ -2655,8 +2713,9 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA57" s="1"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -2687,8 +2746,9 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA58" s="3"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>3</v>
       </c>
@@ -2719,8 +2779,9 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA59" s="1"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>3</v>
       </c>
@@ -2751,8 +2812,9 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
-    </row>
-    <row r="61" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA60" s="3"/>
+    </row>
+    <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>3</v>
       </c>
@@ -2783,8 +2845,9 @@
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA61" s="5"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>4</v>
       </c>
@@ -2815,8 +2878,9 @@
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA62" s="4"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>4</v>
       </c>
@@ -2847,8 +2911,9 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA63" s="1"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>4</v>
       </c>
@@ -2879,8 +2944,9 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA64" s="3"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>4</v>
       </c>
@@ -2911,8 +2977,9 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA65" s="1"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>4</v>
       </c>
@@ -2943,8 +3010,9 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA66" s="3"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>4</v>
       </c>
@@ -2975,8 +3043,9 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA67" s="1"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>4</v>
       </c>
@@ -3007,8 +3076,9 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA68" s="3"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>4</v>
       </c>
@@ -3039,8 +3109,9 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA69" s="1"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>4</v>
       </c>
@@ -3071,8 +3142,9 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA70" s="3"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>4</v>
       </c>
@@ -3103,8 +3175,9 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA71" s="1"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>4</v>
       </c>
@@ -3135,8 +3208,9 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA72" s="3"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>4</v>
       </c>
@@ -3167,8 +3241,9 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA73" s="1"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>4</v>
       </c>
@@ -3199,8 +3274,9 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA74" s="3"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>4</v>
       </c>
@@ -3231,8 +3307,9 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA75" s="1"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>4</v>
       </c>
@@ -3263,8 +3340,9 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA76" s="3"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>4</v>
       </c>
@@ -3295,8 +3373,9 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA77" s="1"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>4</v>
       </c>
@@ -3327,8 +3406,9 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA78" s="3"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -3359,8 +3439,9 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA79" s="1"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>4</v>
       </c>
@@ -3391,8 +3472,9 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
-    </row>
-    <row r="81" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA80" s="3"/>
+    </row>
+    <row r="81" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>4</v>
       </c>
@@ -3423,8 +3505,9 @@
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA81" s="5"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>5</v>
       </c>
@@ -3455,8 +3538,9 @@
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA82" s="4"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>5</v>
       </c>
@@ -3487,8 +3571,9 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA83" s="1"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>5</v>
       </c>
@@ -3519,8 +3604,9 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA84" s="3"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>5</v>
       </c>
@@ -3551,8 +3637,9 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA85" s="1"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>5</v>
       </c>
@@ -3583,8 +3670,9 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA86" s="3"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>5</v>
       </c>
@@ -3615,8 +3703,9 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA87" s="1"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>5</v>
       </c>
@@ -3647,8 +3736,9 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA88" s="3"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>5</v>
       </c>
@@ -3679,8 +3769,9 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA89" s="1"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>5</v>
       </c>
@@ -3711,8 +3802,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>5</v>
       </c>
@@ -3743,8 +3835,9 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA91" s="1"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>5</v>
       </c>
@@ -3775,8 +3868,9 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA92" s="3"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>5</v>
       </c>
@@ -3807,8 +3901,9 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA93" s="1"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>5</v>
       </c>
@@ -3839,8 +3934,9 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA94" s="3"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>5</v>
       </c>
@@ -3871,8 +3967,9 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA95" s="1"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>5</v>
       </c>
@@ -3903,8 +4000,9 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA96" s="3"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>5</v>
       </c>
@@ -3935,8 +4033,9 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA97" s="1"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>5</v>
       </c>
@@ -3967,8 +4066,9 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA98" s="3"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>5</v>
       </c>
@@ -3999,8 +4099,9 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA99" s="1"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>5</v>
       </c>
@@ -4031,8 +4132,9 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
-    </row>
-    <row r="101" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA100" s="3"/>
+    </row>
+    <row r="101" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>5</v>
       </c>
@@ -4063,8 +4165,9 @@
       <c r="X101" s="5"/>
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA101" s="5"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>6</v>
       </c>
@@ -4095,8 +4198,9 @@
       <c r="X102" s="4"/>
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA102" s="4"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>6</v>
       </c>
@@ -4127,8 +4231,9 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA103" s="1"/>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>6</v>
       </c>
@@ -4159,8 +4264,9 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA104" s="3"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>6</v>
       </c>
@@ -4191,8 +4297,9 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA105" s="1"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>6</v>
       </c>
@@ -4223,8 +4330,9 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA106" s="3"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>6</v>
       </c>
@@ -4255,8 +4363,9 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA107" s="1"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>6</v>
       </c>
@@ -4287,8 +4396,9 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA108" s="3"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>6</v>
       </c>
@@ -4319,8 +4429,9 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA109" s="1"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>6</v>
       </c>
@@ -4351,8 +4462,9 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA110" s="3"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>6</v>
       </c>
@@ -4383,8 +4495,9 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA111" s="1"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>6</v>
       </c>
@@ -4415,8 +4528,9 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA112" s="3"/>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>6</v>
       </c>
@@ -4447,8 +4561,9 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA113" s="1"/>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>6</v>
       </c>
@@ -4479,8 +4594,9 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA114" s="3"/>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>6</v>
       </c>
@@ -4511,8 +4627,9 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA115" s="1"/>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>6</v>
       </c>
@@ -4543,8 +4660,9 @@
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA116" s="3"/>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>6</v>
       </c>
@@ -4575,8 +4693,9 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA117" s="1"/>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>6</v>
       </c>
@@ -4607,8 +4726,9 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA118" s="3"/>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>6</v>
       </c>
@@ -4639,8 +4759,9 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA119" s="1"/>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>6</v>
       </c>
@@ -4671,8 +4792,9 @@
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
-    </row>
-    <row r="121" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA120" s="3"/>
+    </row>
+    <row r="121" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>6</v>
       </c>
@@ -4703,8 +4825,9 @@
       <c r="X121" s="5"/>
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA121" s="5"/>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>7</v>
       </c>
@@ -4735,8 +4858,9 @@
       <c r="X122" s="4"/>
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA122" s="4"/>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>7</v>
       </c>
@@ -4767,8 +4891,9 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA123" s="1"/>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>7</v>
       </c>
@@ -4799,8 +4924,9 @@
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA124" s="3"/>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>7</v>
       </c>
@@ -4831,8 +4957,9 @@
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA125" s="1"/>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>7</v>
       </c>
@@ -4863,8 +4990,9 @@
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA126" s="3"/>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>7</v>
       </c>
@@ -4895,8 +5023,9 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
-    </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA127" s="1"/>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>7</v>
       </c>
@@ -4927,8 +5056,9 @@
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA128" s="3"/>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>7</v>
       </c>
@@ -4959,8 +5089,9 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA129" s="1"/>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>7</v>
       </c>
@@ -4991,8 +5122,9 @@
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA130" s="3"/>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>7</v>
       </c>
@@ -5023,8 +5155,9 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA131" s="1"/>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>7</v>
       </c>
@@ -5055,8 +5188,9 @@
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA132" s="3"/>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>7</v>
       </c>
@@ -5087,8 +5221,9 @@
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA133" s="1"/>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>7</v>
       </c>
@@ -5119,8 +5254,9 @@
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA134" s="3"/>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>7</v>
       </c>
@@ -5151,8 +5287,9 @@
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
-    </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA135" s="1"/>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>7</v>
       </c>
@@ -5183,8 +5320,9 @@
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA136" s="3"/>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>7</v>
       </c>
@@ -5215,8 +5353,9 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
-    </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA137" s="1"/>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>7</v>
       </c>
@@ -5247,8 +5386,9 @@
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA138" s="3"/>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>7</v>
       </c>
@@ -5279,8 +5419,9 @@
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA139" s="1"/>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>7</v>
       </c>
@@ -5311,8 +5452,9 @@
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
-    </row>
-    <row r="141" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA140" s="3"/>
+    </row>
+    <row r="141" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="5">
         <v>7</v>
       </c>
@@ -5343,8 +5485,9 @@
       <c r="X141" s="5"/>
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA141" s="5"/>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>8</v>
       </c>
@@ -5375,8 +5518,9 @@
       <c r="X142" s="4"/>
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA142" s="4"/>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>8</v>
       </c>
@@ -5407,8 +5551,9 @@
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA143" s="1"/>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>8</v>
       </c>
@@ -5439,8 +5584,9 @@
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
-    </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA144" s="3"/>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>8</v>
       </c>
@@ -5471,8 +5617,9 @@
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
-    </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA145" s="1"/>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>8</v>
       </c>
@@ -5503,8 +5650,9 @@
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
-    </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA146" s="3"/>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>8</v>
       </c>
@@ -5535,8 +5683,9 @@
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
-    </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA147" s="1"/>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>8</v>
       </c>
@@ -5567,8 +5716,9 @@
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
-    </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA148" s="3"/>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>8</v>
       </c>
@@ -5599,8 +5749,9 @@
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
-    </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA149" s="1"/>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>8</v>
       </c>
@@ -5631,8 +5782,9 @@
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
-    </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA150" s="3"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>8</v>
       </c>
@@ -5663,8 +5815,9 @@
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
-    </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA151" s="1"/>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>8</v>
       </c>
@@ -5695,8 +5848,9 @@
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
-    </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA152" s="3"/>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>8</v>
       </c>
@@ -5727,8 +5881,9 @@
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
-    </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA153" s="1"/>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>8</v>
       </c>
@@ -5759,8 +5914,9 @@
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
-    </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA154" s="3"/>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>8</v>
       </c>
@@ -5791,8 +5947,9 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
-    </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA155" s="1"/>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>8</v>
       </c>
@@ -5823,8 +5980,9 @@
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
-    </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA156" s="3"/>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>8</v>
       </c>
@@ -5855,8 +6013,9 @@
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
-    </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA157" s="1"/>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>8</v>
       </c>
@@ -5887,8 +6046,9 @@
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
-    </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA158" s="3"/>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>8</v>
       </c>
@@ -5919,8 +6079,9 @@
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
-    </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA159" s="1"/>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>8</v>
       </c>
@@ -5951,8 +6112,9 @@
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
-    </row>
-    <row r="161" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA160" s="3"/>
+    </row>
+    <row r="161" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="5">
         <v>8</v>
       </c>
@@ -5983,8 +6145,9 @@
       <c r="X161" s="5"/>
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
-    </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA161" s="5"/>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>9</v>
       </c>
@@ -6015,8 +6178,9 @@
       <c r="X162" s="4"/>
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
-    </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA162" s="4"/>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>9</v>
       </c>
@@ -6047,8 +6211,9 @@
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
-    </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA163" s="1"/>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>9</v>
       </c>
@@ -6079,8 +6244,9 @@
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
-    </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA164" s="3"/>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>9</v>
       </c>
@@ -6111,8 +6277,9 @@
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
-    </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA165" s="1"/>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>9</v>
       </c>
@@ -6143,8 +6310,9 @@
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
-    </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA166" s="3"/>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>9</v>
       </c>
@@ -6175,8 +6343,9 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
-    </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA167" s="1"/>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>9</v>
       </c>
@@ -6207,8 +6376,9 @@
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
-    </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA168" s="3"/>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>9</v>
       </c>
@@ -6239,8 +6409,9 @@
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
-    </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA169" s="1"/>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>9</v>
       </c>
@@ -6271,8 +6442,9 @@
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
-    </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA170" s="3"/>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>9</v>
       </c>
@@ -6303,8 +6475,9 @@
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
-    </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA171" s="1"/>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>9</v>
       </c>
@@ -6335,8 +6508,9 @@
       <c r="X172" s="3"/>
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
-    </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA172" s="3"/>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>9</v>
       </c>
@@ -6367,8 +6541,9 @@
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
-    </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA173" s="1"/>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>9</v>
       </c>
@@ -6399,8 +6574,9 @@
       <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
-    </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA174" s="3"/>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>9</v>
       </c>
@@ -6431,8 +6607,9 @@
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
-    </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA175" s="1"/>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>9</v>
       </c>
@@ -6463,8 +6640,9 @@
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
-    </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA176" s="3"/>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>9</v>
       </c>
@@ -6495,8 +6673,9 @@
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
-    </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA177" s="1"/>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>9</v>
       </c>
@@ -6527,8 +6706,9 @@
       <c r="X178" s="3"/>
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
-    </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA178" s="3"/>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>9</v>
       </c>
@@ -6559,8 +6739,9 @@
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
-    </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA179" s="1"/>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>9</v>
       </c>
@@ -6591,8 +6772,9 @@
       <c r="X180" s="3"/>
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
-    </row>
-    <row r="181" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA180" s="3"/>
+    </row>
+    <row r="181" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="5">
         <v>9</v>
       </c>
@@ -6623,8 +6805,9 @@
       <c r="X181" s="5"/>
       <c r="Y181" s="5"/>
       <c r="Z181" s="5"/>
-    </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA181" s="5"/>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>10</v>
       </c>
@@ -6655,8 +6838,9 @@
       <c r="X182" s="4"/>
       <c r="Y182" s="4"/>
       <c r="Z182" s="4"/>
-    </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA182" s="4"/>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>10</v>
       </c>
@@ -6687,8 +6871,9 @@
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
-    </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA183" s="1"/>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>10</v>
       </c>
@@ -6719,8 +6904,9 @@
       <c r="X184" s="3"/>
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
-    </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA184" s="3"/>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>10</v>
       </c>
@@ -6751,8 +6937,9 @@
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
-    </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA185" s="1"/>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>10</v>
       </c>
@@ -6783,8 +6970,9 @@
       <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
-    </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA186" s="3"/>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>10</v>
       </c>
@@ -6815,8 +7003,9 @@
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
-    </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA187" s="1"/>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>10</v>
       </c>
@@ -6847,8 +7036,9 @@
       <c r="X188" s="3"/>
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
-    </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA188" s="3"/>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>10</v>
       </c>
@@ -6879,8 +7069,9 @@
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
-    </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA189" s="1"/>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>10</v>
       </c>
@@ -6911,8 +7102,9 @@
       <c r="X190" s="3"/>
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
-    </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA190" s="3"/>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>10</v>
       </c>
@@ -6943,8 +7135,9 @@
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
-    </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA191" s="1"/>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>10</v>
       </c>
@@ -6975,8 +7168,9 @@
       <c r="X192" s="3"/>
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
-    </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA192" s="3"/>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>10</v>
       </c>
@@ -7007,8 +7201,9 @@
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
-    </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA193" s="1"/>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>10</v>
       </c>
@@ -7039,8 +7234,9 @@
       <c r="X194" s="3"/>
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
-    </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA194" s="3"/>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>10</v>
       </c>
@@ -7071,8 +7267,9 @@
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
-    </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA195" s="1"/>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>10</v>
       </c>
@@ -7103,8 +7300,9 @@
       <c r="X196" s="3"/>
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
-    </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA196" s="3"/>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>10</v>
       </c>
@@ -7135,8 +7333,9 @@
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
-    </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA197" s="1"/>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>10</v>
       </c>
@@ -7167,8 +7366,9 @@
       <c r="X198" s="3"/>
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
-    </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA198" s="3"/>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>10</v>
       </c>
@@ -7199,8 +7399,9 @@
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
-    </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA199" s="1"/>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>10</v>
       </c>
@@ -7231,8 +7432,9 @@
       <c r="X200" s="3"/>
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
-    </row>
-    <row r="201" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA200" s="3"/>
+    </row>
+    <row r="201" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
         <v>10</v>
       </c>
@@ -7263,8 +7465,9 @@
       <c r="X201" s="5"/>
       <c r="Y201" s="5"/>
       <c r="Z201" s="5"/>
-    </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA201" s="5"/>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>11</v>
       </c>
@@ -7295,8 +7498,9 @@
       <c r="X202" s="4"/>
       <c r="Y202" s="4"/>
       <c r="Z202" s="4"/>
-    </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA202" s="4"/>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>11</v>
       </c>
@@ -7327,8 +7531,9 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
-    </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA203" s="1"/>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>11</v>
       </c>
@@ -7359,8 +7564,9 @@
       <c r="X204" s="3"/>
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
-    </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA204" s="3"/>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>11</v>
       </c>
@@ -7391,8 +7597,9 @@
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
-    </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA205" s="1"/>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>11</v>
       </c>
@@ -7423,8 +7630,9 @@
       <c r="X206" s="3"/>
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
-    </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA206" s="3"/>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>11</v>
       </c>
@@ -7455,8 +7663,9 @@
       <c r="X207" s="1"/>
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
-    </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA207" s="1"/>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>11</v>
       </c>
@@ -7487,8 +7696,9 @@
       <c r="X208" s="3"/>
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
-    </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA208" s="3"/>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>11</v>
       </c>
@@ -7519,8 +7729,9 @@
       <c r="X209" s="1"/>
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
-    </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA209" s="1"/>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>11</v>
       </c>
@@ -7551,8 +7762,9 @@
       <c r="X210" s="3"/>
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
-    </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA210" s="3"/>
+    </row>
+    <row r="211" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>11</v>
       </c>
@@ -7583,8 +7795,9 @@
       <c r="X211" s="1"/>
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
-    </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA211" s="1"/>
+    </row>
+    <row r="212" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>11</v>
       </c>
@@ -7615,8 +7828,9 @@
       <c r="X212" s="3"/>
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
-    </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA212" s="3"/>
+    </row>
+    <row r="213" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>11</v>
       </c>
@@ -7647,8 +7861,9 @@
       <c r="X213" s="1"/>
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
-    </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA213" s="1"/>
+    </row>
+    <row r="214" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>11</v>
       </c>
@@ -7679,8 +7894,9 @@
       <c r="X214" s="3"/>
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
-    </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA214" s="3"/>
+    </row>
+    <row r="215" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>11</v>
       </c>
@@ -7711,8 +7927,9 @@
       <c r="X215" s="1"/>
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
-    </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA215" s="1"/>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>11</v>
       </c>
@@ -7743,8 +7960,9 @@
       <c r="X216" s="3"/>
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
-    </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA216" s="3"/>
+    </row>
+    <row r="217" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>11</v>
       </c>
@@ -7775,8 +7993,9 @@
       <c r="X217" s="1"/>
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
-    </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA217" s="1"/>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>11</v>
       </c>
@@ -7807,8 +8026,9 @@
       <c r="X218" s="3"/>
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
-    </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA218" s="3"/>
+    </row>
+    <row r="219" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>11</v>
       </c>
@@ -7839,8 +8059,9 @@
       <c r="X219" s="1"/>
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
-    </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA219" s="1"/>
+    </row>
+    <row r="220" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>11</v>
       </c>
@@ -7871,8 +8092,9 @@
       <c r="X220" s="3"/>
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
-    </row>
-    <row r="221" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA220" s="3"/>
+    </row>
+    <row r="221" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
         <v>11</v>
       </c>
@@ -7903,8 +8125,9 @@
       <c r="X221" s="5"/>
       <c r="Y221" s="5"/>
       <c r="Z221" s="5"/>
-    </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA221" s="5"/>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>12</v>
       </c>
@@ -7935,8 +8158,9 @@
       <c r="X222" s="4"/>
       <c r="Y222" s="4"/>
       <c r="Z222" s="4"/>
-    </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA222" s="4"/>
+    </row>
+    <row r="223" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>12</v>
       </c>
@@ -7967,8 +8191,9 @@
       <c r="X223" s="1"/>
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
-    </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA223" s="1"/>
+    </row>
+    <row r="224" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>12</v>
       </c>
@@ -7999,8 +8224,9 @@
       <c r="X224" s="3"/>
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
-    </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA224" s="3"/>
+    </row>
+    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>12</v>
       </c>
@@ -8031,8 +8257,9 @@
       <c r="X225" s="1"/>
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
-    </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA225" s="1"/>
+    </row>
+    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>12</v>
       </c>
@@ -8063,8 +8290,9 @@
       <c r="X226" s="3"/>
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
-    </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA226" s="3"/>
+    </row>
+    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>12</v>
       </c>
@@ -8095,8 +8323,9 @@
       <c r="X227" s="1"/>
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
-    </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA227" s="1"/>
+    </row>
+    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>12</v>
       </c>
@@ -8127,8 +8356,9 @@
       <c r="X228" s="3"/>
       <c r="Y228" s="3"/>
       <c r="Z228" s="3"/>
-    </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA228" s="3"/>
+    </row>
+    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>12</v>
       </c>
@@ -8159,8 +8389,9 @@
       <c r="X229" s="1"/>
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
-    </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA229" s="1"/>
+    </row>
+    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>12</v>
       </c>
@@ -8191,8 +8422,9 @@
       <c r="X230" s="3"/>
       <c r="Y230" s="3"/>
       <c r="Z230" s="3"/>
-    </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA230" s="3"/>
+    </row>
+    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>12</v>
       </c>
@@ -8223,8 +8455,9 @@
       <c r="X231" s="1"/>
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
-    </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA231" s="1"/>
+    </row>
+    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>12</v>
       </c>
@@ -8255,8 +8488,9 @@
       <c r="X232" s="3"/>
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
-    </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA232" s="3"/>
+    </row>
+    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>12</v>
       </c>
@@ -8287,8 +8521,9 @@
       <c r="X233" s="1"/>
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
-    </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA233" s="1"/>
+    </row>
+    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>12</v>
       </c>
@@ -8319,8 +8554,9 @@
       <c r="X234" s="3"/>
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
-    </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA234" s="3"/>
+    </row>
+    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>12</v>
       </c>
@@ -8351,8 +8587,9 @@
       <c r="X235" s="1"/>
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
-    </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA235" s="1"/>
+    </row>
+    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>12</v>
       </c>
@@ -8383,8 +8620,9 @@
       <c r="X236" s="3"/>
       <c r="Y236" s="3"/>
       <c r="Z236" s="3"/>
-    </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA236" s="3"/>
+    </row>
+    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>12</v>
       </c>
@@ -8415,8 +8653,9 @@
       <c r="X237" s="1"/>
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
-    </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA237" s="1"/>
+    </row>
+    <row r="238" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>12</v>
       </c>
@@ -8447,8 +8686,9 @@
       <c r="X238" s="3"/>
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
-    </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA238" s="3"/>
+    </row>
+    <row r="239" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>12</v>
       </c>
@@ -8479,8 +8719,9 @@
       <c r="X239" s="1"/>
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
-    </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA239" s="1"/>
+    </row>
+    <row r="240" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>12</v>
       </c>
@@ -8511,8 +8752,9 @@
       <c r="X240" s="3"/>
       <c r="Y240" s="3"/>
       <c r="Z240" s="3"/>
-    </row>
-    <row r="241" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA240" s="3"/>
+    </row>
+    <row r="241" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="5">
         <v>12</v>
       </c>
@@ -8543,8 +8785,9 @@
       <c r="X241" s="5"/>
       <c r="Y241" s="5"/>
       <c r="Z241" s="5"/>
-    </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA241" s="5"/>
+    </row>
+    <row r="242" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>13</v>
       </c>
@@ -8575,8 +8818,9 @@
       <c r="X242" s="4"/>
       <c r="Y242" s="4"/>
       <c r="Z242" s="4"/>
-    </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA242" s="4"/>
+    </row>
+    <row r="243" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>13</v>
       </c>
@@ -8607,8 +8851,9 @@
       <c r="X243" s="1"/>
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
-    </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA243" s="1"/>
+    </row>
+    <row r="244" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>13</v>
       </c>
@@ -8639,8 +8884,9 @@
       <c r="X244" s="3"/>
       <c r="Y244" s="3"/>
       <c r="Z244" s="3"/>
-    </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA244" s="3"/>
+    </row>
+    <row r="245" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>13</v>
       </c>
@@ -8671,8 +8917,9 @@
       <c r="X245" s="1"/>
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
-    </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA245" s="1"/>
+    </row>
+    <row r="246" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>13</v>
       </c>
@@ -8703,8 +8950,9 @@
       <c r="X246" s="3"/>
       <c r="Y246" s="3"/>
       <c r="Z246" s="3"/>
-    </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA246" s="3"/>
+    </row>
+    <row r="247" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>13</v>
       </c>
@@ -8735,8 +8983,9 @@
       <c r="X247" s="1"/>
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
-    </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA247" s="1"/>
+    </row>
+    <row r="248" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>13</v>
       </c>
@@ -8767,8 +9016,9 @@
       <c r="X248" s="3"/>
       <c r="Y248" s="3"/>
       <c r="Z248" s="3"/>
-    </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA248" s="3"/>
+    </row>
+    <row r="249" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>13</v>
       </c>
@@ -8799,8 +9049,9 @@
       <c r="X249" s="1"/>
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
-    </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA249" s="1"/>
+    </row>
+    <row r="250" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>13</v>
       </c>
@@ -8831,8 +9082,9 @@
       <c r="X250" s="3"/>
       <c r="Y250" s="3"/>
       <c r="Z250" s="3"/>
-    </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA250" s="3"/>
+    </row>
+    <row r="251" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>13</v>
       </c>
@@ -8863,8 +9115,9 @@
       <c r="X251" s="1"/>
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
-    </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA251" s="1"/>
+    </row>
+    <row r="252" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>13</v>
       </c>
@@ -8895,8 +9148,9 @@
       <c r="X252" s="3"/>
       <c r="Y252" s="3"/>
       <c r="Z252" s="3"/>
-    </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA252" s="3"/>
+    </row>
+    <row r="253" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>13</v>
       </c>
@@ -8927,8 +9181,9 @@
       <c r="X253" s="1"/>
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
-    </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA253" s="1"/>
+    </row>
+    <row r="254" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>13</v>
       </c>
@@ -8959,8 +9214,9 @@
       <c r="X254" s="3"/>
       <c r="Y254" s="3"/>
       <c r="Z254" s="3"/>
-    </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA254" s="3"/>
+    </row>
+    <row r="255" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>13</v>
       </c>
@@ -8991,8 +9247,9 @@
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
-    </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA255" s="1"/>
+    </row>
+    <row r="256" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>13</v>
       </c>
@@ -9023,8 +9280,9 @@
       <c r="X256" s="3"/>
       <c r="Y256" s="3"/>
       <c r="Z256" s="3"/>
-    </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA256" s="3"/>
+    </row>
+    <row r="257" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>13</v>
       </c>
@@ -9055,8 +9313,9 @@
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
-    </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA257" s="1"/>
+    </row>
+    <row r="258" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>13</v>
       </c>
@@ -9087,8 +9346,9 @@
       <c r="X258" s="3"/>
       <c r="Y258" s="3"/>
       <c r="Z258" s="3"/>
-    </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA258" s="3"/>
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>13</v>
       </c>
@@ -9119,8 +9379,9 @@
       <c r="X259" s="1"/>
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
-    </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA259" s="1"/>
+    </row>
+    <row r="260" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>13</v>
       </c>
@@ -9151,8 +9412,9 @@
       <c r="X260" s="3"/>
       <c r="Y260" s="3"/>
       <c r="Z260" s="3"/>
-    </row>
-    <row r="261" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA260" s="3"/>
+    </row>
+    <row r="261" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="5">
         <v>13</v>
       </c>
@@ -9183,8 +9445,9 @@
       <c r="X261" s="5"/>
       <c r="Y261" s="5"/>
       <c r="Z261" s="5"/>
-    </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA261" s="5"/>
+    </row>
+    <row r="262" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>14</v>
       </c>
@@ -9215,8 +9478,9 @@
       <c r="X262" s="4"/>
       <c r="Y262" s="4"/>
       <c r="Z262" s="4"/>
-    </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA262" s="4"/>
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>14</v>
       </c>
@@ -9247,8 +9511,9 @@
       <c r="X263" s="1"/>
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
-    </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA263" s="1"/>
+    </row>
+    <row r="264" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>14</v>
       </c>
@@ -9279,8 +9544,9 @@
       <c r="X264" s="3"/>
       <c r="Y264" s="3"/>
       <c r="Z264" s="3"/>
-    </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA264" s="3"/>
+    </row>
+    <row r="265" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>14</v>
       </c>
@@ -9311,8 +9577,9 @@
       <c r="X265" s="1"/>
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
-    </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA265" s="1"/>
+    </row>
+    <row r="266" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>14</v>
       </c>
@@ -9343,8 +9610,9 @@
       <c r="X266" s="3"/>
       <c r="Y266" s="3"/>
       <c r="Z266" s="3"/>
-    </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA266" s="3"/>
+    </row>
+    <row r="267" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>14</v>
       </c>
@@ -9375,8 +9643,9 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
-    </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA267" s="1"/>
+    </row>
+    <row r="268" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>14</v>
       </c>
@@ -9407,8 +9676,9 @@
       <c r="X268" s="3"/>
       <c r="Y268" s="3"/>
       <c r="Z268" s="3"/>
-    </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA268" s="3"/>
+    </row>
+    <row r="269" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>14</v>
       </c>
@@ -9439,8 +9709,9 @@
       <c r="X269" s="1"/>
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
-    </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA269" s="1"/>
+    </row>
+    <row r="270" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>14</v>
       </c>
@@ -9471,8 +9742,9 @@
       <c r="X270" s="3"/>
       <c r="Y270" s="3"/>
       <c r="Z270" s="3"/>
-    </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA270" s="3"/>
+    </row>
+    <row r="271" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>14</v>
       </c>
@@ -9503,8 +9775,9 @@
       <c r="X271" s="1"/>
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
-    </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA271" s="1"/>
+    </row>
+    <row r="272" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>14</v>
       </c>
@@ -9535,8 +9808,9 @@
       <c r="X272" s="3"/>
       <c r="Y272" s="3"/>
       <c r="Z272" s="3"/>
-    </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA272" s="3"/>
+    </row>
+    <row r="273" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>14</v>
       </c>
@@ -9567,8 +9841,9 @@
       <c r="X273" s="1"/>
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
-    </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA273" s="1"/>
+    </row>
+    <row r="274" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>14</v>
       </c>
@@ -9599,8 +9874,9 @@
       <c r="X274" s="3"/>
       <c r="Y274" s="3"/>
       <c r="Z274" s="3"/>
-    </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA274" s="3"/>
+    </row>
+    <row r="275" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>14</v>
       </c>
@@ -9631,8 +9907,9 @@
       <c r="X275" s="1"/>
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
-    </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA275" s="1"/>
+    </row>
+    <row r="276" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>14</v>
       </c>
@@ -9663,8 +9940,9 @@
       <c r="X276" s="3"/>
       <c r="Y276" s="3"/>
       <c r="Z276" s="3"/>
-    </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA276" s="3"/>
+    </row>
+    <row r="277" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>14</v>
       </c>
@@ -9695,8 +9973,9 @@
       <c r="X277" s="1"/>
       <c r="Y277" s="1"/>
       <c r="Z277" s="1"/>
-    </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA277" s="1"/>
+    </row>
+    <row r="278" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>14</v>
       </c>
@@ -9727,8 +10006,9 @@
       <c r="X278" s="3"/>
       <c r="Y278" s="3"/>
       <c r="Z278" s="3"/>
-    </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA278" s="3"/>
+    </row>
+    <row r="279" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>14</v>
       </c>
@@ -9759,8 +10039,9 @@
       <c r="X279" s="1"/>
       <c r="Y279" s="1"/>
       <c r="Z279" s="1"/>
-    </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA279" s="1"/>
+    </row>
+    <row r="280" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>14</v>
       </c>
@@ -9791,8 +10072,9 @@
       <c r="X280" s="3"/>
       <c r="Y280" s="3"/>
       <c r="Z280" s="3"/>
-    </row>
-    <row r="281" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA280" s="3"/>
+    </row>
+    <row r="281" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="5">
         <v>14</v>
       </c>
@@ -9823,8 +10105,9 @@
       <c r="X281" s="5"/>
       <c r="Y281" s="5"/>
       <c r="Z281" s="5"/>
-    </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA281" s="5"/>
+    </row>
+    <row r="282" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>15</v>
       </c>
@@ -9855,8 +10138,9 @@
       <c r="X282" s="4"/>
       <c r="Y282" s="4"/>
       <c r="Z282" s="4"/>
-    </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA282" s="4"/>
+    </row>
+    <row r="283" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>15</v>
       </c>
@@ -9887,8 +10171,9 @@
       <c r="X283" s="1"/>
       <c r="Y283" s="1"/>
       <c r="Z283" s="1"/>
-    </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA283" s="1"/>
+    </row>
+    <row r="284" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>15</v>
       </c>
@@ -9919,8 +10204,9 @@
       <c r="X284" s="3"/>
       <c r="Y284" s="3"/>
       <c r="Z284" s="3"/>
-    </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA284" s="3"/>
+    </row>
+    <row r="285" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>15</v>
       </c>
@@ -9951,8 +10237,9 @@
       <c r="X285" s="1"/>
       <c r="Y285" s="1"/>
       <c r="Z285" s="1"/>
-    </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA285" s="1"/>
+    </row>
+    <row r="286" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>15</v>
       </c>
@@ -9983,8 +10270,9 @@
       <c r="X286" s="3"/>
       <c r="Y286" s="3"/>
       <c r="Z286" s="3"/>
-    </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA286" s="3"/>
+    </row>
+    <row r="287" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>15</v>
       </c>
@@ -10015,8 +10303,9 @@
       <c r="X287" s="1"/>
       <c r="Y287" s="1"/>
       <c r="Z287" s="1"/>
-    </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA287" s="1"/>
+    </row>
+    <row r="288" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>15</v>
       </c>
@@ -10047,8 +10336,9 @@
       <c r="X288" s="3"/>
       <c r="Y288" s="3"/>
       <c r="Z288" s="3"/>
-    </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA288" s="3"/>
+    </row>
+    <row r="289" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>15</v>
       </c>
@@ -10079,8 +10369,9 @@
       <c r="X289" s="1"/>
       <c r="Y289" s="1"/>
       <c r="Z289" s="1"/>
-    </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA289" s="1"/>
+    </row>
+    <row r="290" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>15</v>
       </c>
@@ -10111,8 +10402,9 @@
       <c r="X290" s="3"/>
       <c r="Y290" s="3"/>
       <c r="Z290" s="3"/>
-    </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA290" s="3"/>
+    </row>
+    <row r="291" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>15</v>
       </c>
@@ -10143,8 +10435,9 @@
       <c r="X291" s="1"/>
       <c r="Y291" s="1"/>
       <c r="Z291" s="1"/>
-    </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA291" s="1"/>
+    </row>
+    <row r="292" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>15</v>
       </c>
@@ -10175,8 +10468,9 @@
       <c r="X292" s="3"/>
       <c r="Y292" s="3"/>
       <c r="Z292" s="3"/>
-    </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA292" s="3"/>
+    </row>
+    <row r="293" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>15</v>
       </c>
@@ -10207,8 +10501,9 @@
       <c r="X293" s="1"/>
       <c r="Y293" s="1"/>
       <c r="Z293" s="1"/>
-    </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA293" s="1"/>
+    </row>
+    <row r="294" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>15</v>
       </c>
@@ -10239,8 +10534,9 @@
       <c r="X294" s="3"/>
       <c r="Y294" s="3"/>
       <c r="Z294" s="3"/>
-    </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA294" s="3"/>
+    </row>
+    <row r="295" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>15</v>
       </c>
@@ -10271,8 +10567,9 @@
       <c r="X295" s="1"/>
       <c r="Y295" s="1"/>
       <c r="Z295" s="1"/>
-    </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA295" s="1"/>
+    </row>
+    <row r="296" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>15</v>
       </c>
@@ -10303,8 +10600,9 @@
       <c r="X296" s="3"/>
       <c r="Y296" s="3"/>
       <c r="Z296" s="3"/>
-    </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA296" s="3"/>
+    </row>
+    <row r="297" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>15</v>
       </c>
@@ -10335,8 +10633,9 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
       <c r="Z297" s="1"/>
-    </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA297" s="1"/>
+    </row>
+    <row r="298" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>15</v>
       </c>
@@ -10367,8 +10666,9 @@
       <c r="X298" s="3"/>
       <c r="Y298" s="3"/>
       <c r="Z298" s="3"/>
-    </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA298" s="3"/>
+    </row>
+    <row r="299" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>15</v>
       </c>
@@ -10399,8 +10699,9 @@
       <c r="X299" s="1"/>
       <c r="Y299" s="1"/>
       <c r="Z299" s="1"/>
-    </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA299" s="1"/>
+    </row>
+    <row r="300" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>15</v>
       </c>
@@ -10431,8 +10732,9 @@
       <c r="X300" s="3"/>
       <c r="Y300" s="3"/>
       <c r="Z300" s="3"/>
-    </row>
-    <row r="301" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA300" s="3"/>
+    </row>
+    <row r="301" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="5">
         <v>15</v>
       </c>
@@ -10463,8 +10765,9 @@
       <c r="X301" s="5"/>
       <c r="Y301" s="5"/>
       <c r="Z301" s="5"/>
-    </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA301" s="5"/>
+    </row>
+    <row r="302" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
         <v>16</v>
       </c>
@@ -10495,8 +10798,9 @@
       <c r="X302" s="4"/>
       <c r="Y302" s="4"/>
       <c r="Z302" s="4"/>
-    </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA302" s="4"/>
+    </row>
+    <row r="303" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>16</v>
       </c>
@@ -10527,8 +10831,9 @@
       <c r="X303" s="1"/>
       <c r="Y303" s="1"/>
       <c r="Z303" s="1"/>
-    </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA303" s="1"/>
+    </row>
+    <row r="304" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>16</v>
       </c>
@@ -10559,8 +10864,9 @@
       <c r="X304" s="3"/>
       <c r="Y304" s="3"/>
       <c r="Z304" s="3"/>
-    </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA304" s="3"/>
+    </row>
+    <row r="305" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>16</v>
       </c>
@@ -10591,8 +10897,9 @@
       <c r="X305" s="1"/>
       <c r="Y305" s="1"/>
       <c r="Z305" s="1"/>
-    </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA305" s="1"/>
+    </row>
+    <row r="306" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <v>16</v>
       </c>
@@ -10623,8 +10930,9 @@
       <c r="X306" s="3"/>
       <c r="Y306" s="3"/>
       <c r="Z306" s="3"/>
-    </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA306" s="3"/>
+    </row>
+    <row r="307" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>16</v>
       </c>
@@ -10655,8 +10963,9 @@
       <c r="X307" s="1"/>
       <c r="Y307" s="1"/>
       <c r="Z307" s="1"/>
-    </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA307" s="1"/>
+    </row>
+    <row r="308" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>16</v>
       </c>
@@ -10687,8 +10996,9 @@
       <c r="X308" s="3"/>
       <c r="Y308" s="3"/>
       <c r="Z308" s="3"/>
-    </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA308" s="3"/>
+    </row>
+    <row r="309" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>16</v>
       </c>
@@ -10719,8 +11029,9 @@
       <c r="X309" s="1"/>
       <c r="Y309" s="1"/>
       <c r="Z309" s="1"/>
-    </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA309" s="1"/>
+    </row>
+    <row r="310" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>16</v>
       </c>
@@ -10751,8 +11062,9 @@
       <c r="X310" s="3"/>
       <c r="Y310" s="3"/>
       <c r="Z310" s="3"/>
-    </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA310" s="3"/>
+    </row>
+    <row r="311" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>16</v>
       </c>
@@ -10783,8 +11095,9 @@
       <c r="X311" s="1"/>
       <c r="Y311" s="1"/>
       <c r="Z311" s="1"/>
-    </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA311" s="1"/>
+    </row>
+    <row r="312" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
         <v>16</v>
       </c>
@@ -10815,8 +11128,9 @@
       <c r="X312" s="3"/>
       <c r="Y312" s="3"/>
       <c r="Z312" s="3"/>
-    </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA312" s="3"/>
+    </row>
+    <row r="313" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>16</v>
       </c>
@@ -10847,8 +11161,9 @@
       <c r="X313" s="1"/>
       <c r="Y313" s="1"/>
       <c r="Z313" s="1"/>
-    </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA313" s="1"/>
+    </row>
+    <row r="314" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A314" s="3">
         <v>16</v>
       </c>
@@ -10879,8 +11194,9 @@
       <c r="X314" s="3"/>
       <c r="Y314" s="3"/>
       <c r="Z314" s="3"/>
-    </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA314" s="3"/>
+    </row>
+    <row r="315" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>16</v>
       </c>
@@ -10911,8 +11227,9 @@
       <c r="X315" s="1"/>
       <c r="Y315" s="1"/>
       <c r="Z315" s="1"/>
-    </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA315" s="1"/>
+    </row>
+    <row r="316" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>16</v>
       </c>
@@ -10943,8 +11260,9 @@
       <c r="X316" s="3"/>
       <c r="Y316" s="3"/>
       <c r="Z316" s="3"/>
-    </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA316" s="3"/>
+    </row>
+    <row r="317" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>16</v>
       </c>
@@ -10975,8 +11293,9 @@
       <c r="X317" s="1"/>
       <c r="Y317" s="1"/>
       <c r="Z317" s="1"/>
-    </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA317" s="1"/>
+    </row>
+    <row r="318" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <v>16</v>
       </c>
@@ -11007,8 +11326,9 @@
       <c r="X318" s="3"/>
       <c r="Y318" s="3"/>
       <c r="Z318" s="3"/>
-    </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA318" s="3"/>
+    </row>
+    <row r="319" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>16</v>
       </c>
@@ -11039,8 +11359,9 @@
       <c r="X319" s="1"/>
       <c r="Y319" s="1"/>
       <c r="Z319" s="1"/>
-    </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA319" s="1"/>
+    </row>
+    <row r="320" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
         <v>16</v>
       </c>
@@ -11071,8 +11392,9 @@
       <c r="X320" s="3"/>
       <c r="Y320" s="3"/>
       <c r="Z320" s="3"/>
-    </row>
-    <row r="321" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA320" s="3"/>
+    </row>
+    <row r="321" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="5">
         <v>16</v>
       </c>
@@ -11103,8 +11425,9 @@
       <c r="X321" s="5"/>
       <c r="Y321" s="5"/>
       <c r="Z321" s="5"/>
-    </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA321" s="5"/>
+    </row>
+    <row r="322" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
         <v>17</v>
       </c>
@@ -11135,8 +11458,9 @@
       <c r="X322" s="4"/>
       <c r="Y322" s="4"/>
       <c r="Z322" s="4"/>
-    </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA322" s="4"/>
+    </row>
+    <row r="323" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>17</v>
       </c>
@@ -11167,8 +11491,9 @@
       <c r="X323" s="1"/>
       <c r="Y323" s="1"/>
       <c r="Z323" s="1"/>
-    </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA323" s="1"/>
+    </row>
+    <row r="324" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <v>17</v>
       </c>
@@ -11199,8 +11524,9 @@
       <c r="X324" s="3"/>
       <c r="Y324" s="3"/>
       <c r="Z324" s="3"/>
-    </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA324" s="3"/>
+    </row>
+    <row r="325" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>17</v>
       </c>
@@ -11231,8 +11557,9 @@
       <c r="X325" s="1"/>
       <c r="Y325" s="1"/>
       <c r="Z325" s="1"/>
-    </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA325" s="1"/>
+    </row>
+    <row r="326" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>17</v>
       </c>
@@ -11263,8 +11590,9 @@
       <c r="X326" s="3"/>
       <c r="Y326" s="3"/>
       <c r="Z326" s="3"/>
-    </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA326" s="3"/>
+    </row>
+    <row r="327" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>17</v>
       </c>
@@ -11295,8 +11623,9 @@
       <c r="X327" s="1"/>
       <c r="Y327" s="1"/>
       <c r="Z327" s="1"/>
-    </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA327" s="1"/>
+    </row>
+    <row r="328" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <v>17</v>
       </c>
@@ -11327,8 +11656,9 @@
       <c r="X328" s="3"/>
       <c r="Y328" s="3"/>
       <c r="Z328" s="3"/>
-    </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA328" s="3"/>
+    </row>
+    <row r="329" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>17</v>
       </c>
@@ -11359,8 +11689,9 @@
       <c r="X329" s="1"/>
       <c r="Y329" s="1"/>
       <c r="Z329" s="1"/>
-    </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA329" s="1"/>
+    </row>
+    <row r="330" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <v>17</v>
       </c>
@@ -11391,8 +11722,9 @@
       <c r="X330" s="3"/>
       <c r="Y330" s="3"/>
       <c r="Z330" s="3"/>
-    </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA330" s="3"/>
+    </row>
+    <row r="331" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>17</v>
       </c>
@@ -11423,8 +11755,9 @@
       <c r="X331" s="1"/>
       <c r="Y331" s="1"/>
       <c r="Z331" s="1"/>
-    </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA331" s="1"/>
+    </row>
+    <row r="332" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>17</v>
       </c>
@@ -11455,8 +11788,9 @@
       <c r="X332" s="3"/>
       <c r="Y332" s="3"/>
       <c r="Z332" s="3"/>
-    </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA332" s="3"/>
+    </row>
+    <row r="333" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>17</v>
       </c>
@@ -11487,8 +11821,9 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
       <c r="Z333" s="1"/>
-    </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA333" s="1"/>
+    </row>
+    <row r="334" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>17</v>
       </c>
@@ -11519,8 +11854,9 @@
       <c r="X334" s="3"/>
       <c r="Y334" s="3"/>
       <c r="Z334" s="3"/>
-    </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA334" s="3"/>
+    </row>
+    <row r="335" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>17</v>
       </c>
@@ -11551,8 +11887,9 @@
       <c r="X335" s="1"/>
       <c r="Y335" s="1"/>
       <c r="Z335" s="1"/>
-    </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA335" s="1"/>
+    </row>
+    <row r="336" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>17</v>
       </c>
@@ -11583,8 +11920,9 @@
       <c r="X336" s="3"/>
       <c r="Y336" s="3"/>
       <c r="Z336" s="3"/>
-    </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA336" s="3"/>
+    </row>
+    <row r="337" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>17</v>
       </c>
@@ -11615,8 +11953,9 @@
       <c r="X337" s="1"/>
       <c r="Y337" s="1"/>
       <c r="Z337" s="1"/>
-    </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA337" s="1"/>
+    </row>
+    <row r="338" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <v>17</v>
       </c>
@@ -11647,8 +11986,9 @@
       <c r="X338" s="3"/>
       <c r="Y338" s="3"/>
       <c r="Z338" s="3"/>
-    </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA338" s="3"/>
+    </row>
+    <row r="339" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>17</v>
       </c>
@@ -11679,8 +12019,9 @@
       <c r="X339" s="1"/>
       <c r="Y339" s="1"/>
       <c r="Z339" s="1"/>
-    </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA339" s="1"/>
+    </row>
+    <row r="340" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <v>17</v>
       </c>
@@ -11711,8 +12052,9 @@
       <c r="X340" s="3"/>
       <c r="Y340" s="3"/>
       <c r="Z340" s="3"/>
-    </row>
-    <row r="341" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA340" s="3"/>
+    </row>
+    <row r="341" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="5">
         <v>17</v>
       </c>
@@ -11743,8 +12085,9 @@
       <c r="X341" s="5"/>
       <c r="Y341" s="5"/>
       <c r="Z341" s="5"/>
-    </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA341" s="5"/>
+    </row>
+    <row r="342" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
         <v>18</v>
       </c>
@@ -11775,8 +12118,9 @@
       <c r="X342" s="4"/>
       <c r="Y342" s="4"/>
       <c r="Z342" s="4"/>
-    </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA342" s="4"/>
+    </row>
+    <row r="343" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>18</v>
       </c>
@@ -11807,8 +12151,9 @@
       <c r="X343" s="1"/>
       <c r="Y343" s="1"/>
       <c r="Z343" s="1"/>
-    </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA343" s="1"/>
+    </row>
+    <row r="344" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <v>18</v>
       </c>
@@ -11839,8 +12184,9 @@
       <c r="X344" s="3"/>
       <c r="Y344" s="3"/>
       <c r="Z344" s="3"/>
-    </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA344" s="3"/>
+    </row>
+    <row r="345" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>18</v>
       </c>
@@ -11871,8 +12217,9 @@
       <c r="X345" s="1"/>
       <c r="Y345" s="1"/>
       <c r="Z345" s="1"/>
-    </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA345" s="1"/>
+    </row>
+    <row r="346" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
         <v>18</v>
       </c>
@@ -11903,8 +12250,9 @@
       <c r="X346" s="3"/>
       <c r="Y346" s="3"/>
       <c r="Z346" s="3"/>
-    </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA346" s="3"/>
+    </row>
+    <row r="347" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>18</v>
       </c>
@@ -11935,8 +12283,9 @@
       <c r="X347" s="1"/>
       <c r="Y347" s="1"/>
       <c r="Z347" s="1"/>
-    </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA347" s="1"/>
+    </row>
+    <row r="348" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
         <v>18</v>
       </c>
@@ -11967,8 +12316,9 @@
       <c r="X348" s="3"/>
       <c r="Y348" s="3"/>
       <c r="Z348" s="3"/>
-    </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA348" s="3"/>
+    </row>
+    <row r="349" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>18</v>
       </c>
@@ -11999,8 +12349,9 @@
       <c r="X349" s="1"/>
       <c r="Y349" s="1"/>
       <c r="Z349" s="1"/>
-    </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA349" s="1"/>
+    </row>
+    <row r="350" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
         <v>18</v>
       </c>
@@ -12031,8 +12382,9 @@
       <c r="X350" s="3"/>
       <c r="Y350" s="3"/>
       <c r="Z350" s="3"/>
-    </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA350" s="3"/>
+    </row>
+    <row r="351" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>18</v>
       </c>
@@ -12063,8 +12415,9 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
       <c r="Z351" s="1"/>
-    </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA351" s="1"/>
+    </row>
+    <row r="352" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>18</v>
       </c>
@@ -12095,8 +12448,9 @@
       <c r="X352" s="3"/>
       <c r="Y352" s="3"/>
       <c r="Z352" s="3"/>
-    </row>
-    <row r="353" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA352" s="3"/>
+    </row>
+    <row r="353" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>18</v>
       </c>
@@ -12127,8 +12481,9 @@
       <c r="X353" s="1"/>
       <c r="Y353" s="1"/>
       <c r="Z353" s="1"/>
-    </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA353" s="1"/>
+    </row>
+    <row r="354" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A354" s="3">
         <v>18</v>
       </c>
@@ -12159,8 +12514,9 @@
       <c r="X354" s="3"/>
       <c r="Y354" s="3"/>
       <c r="Z354" s="3"/>
-    </row>
-    <row r="355" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA354" s="3"/>
+    </row>
+    <row r="355" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>18</v>
       </c>
@@ -12191,8 +12547,9 @@
       <c r="X355" s="1"/>
       <c r="Y355" s="1"/>
       <c r="Z355" s="1"/>
-    </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA355" s="1"/>
+    </row>
+    <row r="356" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
         <v>18</v>
       </c>
@@ -12223,8 +12580,9 @@
       <c r="X356" s="3"/>
       <c r="Y356" s="3"/>
       <c r="Z356" s="3"/>
-    </row>
-    <row r="357" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA356" s="3"/>
+    </row>
+    <row r="357" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>18</v>
       </c>
@@ -12255,8 +12613,9 @@
       <c r="X357" s="1"/>
       <c r="Y357" s="1"/>
       <c r="Z357" s="1"/>
-    </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA357" s="1"/>
+    </row>
+    <row r="358" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
         <v>18</v>
       </c>
@@ -12287,8 +12646,9 @@
       <c r="X358" s="3"/>
       <c r="Y358" s="3"/>
       <c r="Z358" s="3"/>
-    </row>
-    <row r="359" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA358" s="3"/>
+    </row>
+    <row r="359" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>18</v>
       </c>
@@ -12319,8 +12679,9 @@
       <c r="X359" s="1"/>
       <c r="Y359" s="1"/>
       <c r="Z359" s="1"/>
-    </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA359" s="1"/>
+    </row>
+    <row r="360" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
         <v>18</v>
       </c>
@@ -12351,8 +12712,9 @@
       <c r="X360" s="3"/>
       <c r="Y360" s="3"/>
       <c r="Z360" s="3"/>
-    </row>
-    <row r="361" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA360" s="3"/>
+    </row>
+    <row r="361" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="5">
         <v>18</v>
       </c>
@@ -12383,8 +12745,9 @@
       <c r="X361" s="5"/>
       <c r="Y361" s="5"/>
       <c r="Z361" s="5"/>
-    </row>
-    <row r="362" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA361" s="5"/>
+    </row>
+    <row r="362" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
         <v>19</v>
       </c>
@@ -12415,8 +12778,9 @@
       <c r="X362" s="4"/>
       <c r="Y362" s="4"/>
       <c r="Z362" s="4"/>
-    </row>
-    <row r="363" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA362" s="4"/>
+    </row>
+    <row r="363" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>19</v>
       </c>
@@ -12447,8 +12811,9 @@
       <c r="X363" s="1"/>
       <c r="Y363" s="1"/>
       <c r="Z363" s="1"/>
-    </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA363" s="1"/>
+    </row>
+    <row r="364" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
         <v>19</v>
       </c>
@@ -12479,8 +12844,9 @@
       <c r="X364" s="3"/>
       <c r="Y364" s="3"/>
       <c r="Z364" s="3"/>
-    </row>
-    <row r="365" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA364" s="3"/>
+    </row>
+    <row r="365" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>19</v>
       </c>
@@ -12511,8 +12877,9 @@
       <c r="X365" s="1"/>
       <c r="Y365" s="1"/>
       <c r="Z365" s="1"/>
-    </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA365" s="1"/>
+    </row>
+    <row r="366" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
         <v>19</v>
       </c>
@@ -12543,8 +12910,9 @@
       <c r="X366" s="3"/>
       <c r="Y366" s="3"/>
       <c r="Z366" s="3"/>
-    </row>
-    <row r="367" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA366" s="3"/>
+    </row>
+    <row r="367" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>19</v>
       </c>
@@ -12575,8 +12943,9 @@
       <c r="X367" s="1"/>
       <c r="Y367" s="1"/>
       <c r="Z367" s="1"/>
-    </row>
-    <row r="368" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA367" s="1"/>
+    </row>
+    <row r="368" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
         <v>19</v>
       </c>
@@ -12607,8 +12976,9 @@
       <c r="X368" s="3"/>
       <c r="Y368" s="3"/>
       <c r="Z368" s="3"/>
-    </row>
-    <row r="369" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA368" s="3"/>
+    </row>
+    <row r="369" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>19</v>
       </c>
@@ -12639,8 +13009,9 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
       <c r="Z369" s="1"/>
-    </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA369" s="1"/>
+    </row>
+    <row r="370" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
         <v>19</v>
       </c>
@@ -12671,8 +13042,9 @@
       <c r="X370" s="3"/>
       <c r="Y370" s="3"/>
       <c r="Z370" s="3"/>
-    </row>
-    <row r="371" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA370" s="3"/>
+    </row>
+    <row r="371" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>19</v>
       </c>
@@ -12703,8 +13075,9 @@
       <c r="X371" s="1"/>
       <c r="Y371" s="1"/>
       <c r="Z371" s="1"/>
-    </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA371" s="1"/>
+    </row>
+    <row r="372" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
         <v>19</v>
       </c>
@@ -12735,8 +13108,9 @@
       <c r="X372" s="3"/>
       <c r="Y372" s="3"/>
       <c r="Z372" s="3"/>
-    </row>
-    <row r="373" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA372" s="3"/>
+    </row>
+    <row r="373" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>19</v>
       </c>
@@ -12767,8 +13141,9 @@
       <c r="X373" s="1"/>
       <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
-    </row>
-    <row r="374" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA373" s="1"/>
+    </row>
+    <row r="374" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
         <v>19</v>
       </c>
@@ -12799,8 +13174,9 @@
       <c r="X374" s="3"/>
       <c r="Y374" s="3"/>
       <c r="Z374" s="3"/>
-    </row>
-    <row r="375" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA374" s="3"/>
+    </row>
+    <row r="375" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>19</v>
       </c>
@@ -12831,8 +13207,9 @@
       <c r="X375" s="1"/>
       <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
-    </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA375" s="1"/>
+    </row>
+    <row r="376" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
         <v>19</v>
       </c>
@@ -12863,8 +13240,9 @@
       <c r="X376" s="3"/>
       <c r="Y376" s="3"/>
       <c r="Z376" s="3"/>
-    </row>
-    <row r="377" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA376" s="3"/>
+    </row>
+    <row r="377" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>19</v>
       </c>
@@ -12895,8 +13273,9 @@
       <c r="X377" s="1"/>
       <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
-    </row>
-    <row r="378" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA377" s="1"/>
+    </row>
+    <row r="378" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
         <v>19</v>
       </c>
@@ -12927,8 +13306,9 @@
       <c r="X378" s="3"/>
       <c r="Y378" s="3"/>
       <c r="Z378" s="3"/>
-    </row>
-    <row r="379" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA378" s="3"/>
+    </row>
+    <row r="379" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>19</v>
       </c>
@@ -12959,8 +13339,9 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
-    </row>
-    <row r="380" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA379" s="1"/>
+    </row>
+    <row r="380" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A380" s="3">
         <v>19</v>
       </c>
@@ -12991,8 +13372,9 @@
       <c r="X380" s="3"/>
       <c r="Y380" s="3"/>
       <c r="Z380" s="3"/>
-    </row>
-    <row r="381" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA380" s="3"/>
+    </row>
+    <row r="381" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A381" s="5">
         <v>19</v>
       </c>
@@ -13023,8 +13405,9 @@
       <c r="X381" s="5"/>
       <c r="Y381" s="5"/>
       <c r="Z381" s="5"/>
-    </row>
-    <row r="382" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA381" s="5"/>
+    </row>
+    <row r="382" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
         <v>20</v>
       </c>
@@ -13055,8 +13438,9 @@
       <c r="X382" s="4"/>
       <c r="Y382" s="4"/>
       <c r="Z382" s="4"/>
-    </row>
-    <row r="383" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA382" s="4"/>
+    </row>
+    <row r="383" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>20</v>
       </c>
@@ -13087,8 +13471,9 @@
       <c r="X383" s="1"/>
       <c r="Y383" s="1"/>
       <c r="Z383" s="1"/>
-    </row>
-    <row r="384" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA383" s="1"/>
+    </row>
+    <row r="384" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
         <v>20</v>
       </c>
@@ -13119,8 +13504,9 @@
       <c r="X384" s="3"/>
       <c r="Y384" s="3"/>
       <c r="Z384" s="3"/>
-    </row>
-    <row r="385" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA384" s="3"/>
+    </row>
+    <row r="385" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>20</v>
       </c>
@@ -13151,8 +13537,9 @@
       <c r="X385" s="1"/>
       <c r="Y385" s="1"/>
       <c r="Z385" s="1"/>
-    </row>
-    <row r="386" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA385" s="1"/>
+    </row>
+    <row r="386" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A386" s="3">
         <v>20</v>
       </c>
@@ -13183,8 +13570,9 @@
       <c r="X386" s="3"/>
       <c r="Y386" s="3"/>
       <c r="Z386" s="3"/>
-    </row>
-    <row r="387" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA386" s="3"/>
+    </row>
+    <row r="387" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>20</v>
       </c>
@@ -13215,8 +13603,9 @@
       <c r="X387" s="1"/>
       <c r="Y387" s="1"/>
       <c r="Z387" s="1"/>
-    </row>
-    <row r="388" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA387" s="1"/>
+    </row>
+    <row r="388" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
         <v>20</v>
       </c>
@@ -13247,8 +13636,9 @@
       <c r="X388" s="3"/>
       <c r="Y388" s="3"/>
       <c r="Z388" s="3"/>
-    </row>
-    <row r="389" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA388" s="3"/>
+    </row>
+    <row r="389" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>20</v>
       </c>
@@ -13279,8 +13669,9 @@
       <c r="X389" s="1"/>
       <c r="Y389" s="1"/>
       <c r="Z389" s="1"/>
-    </row>
-    <row r="390" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA389" s="1"/>
+    </row>
+    <row r="390" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A390" s="3">
         <v>20</v>
       </c>
@@ -13311,8 +13702,9 @@
       <c r="X390" s="3"/>
       <c r="Y390" s="3"/>
       <c r="Z390" s="3"/>
-    </row>
-    <row r="391" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA390" s="3"/>
+    </row>
+    <row r="391" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>20</v>
       </c>
@@ -13343,8 +13735,9 @@
       <c r="X391" s="1"/>
       <c r="Y391" s="1"/>
       <c r="Z391" s="1"/>
-    </row>
-    <row r="392" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA391" s="1"/>
+    </row>
+    <row r="392" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
         <v>20</v>
       </c>
@@ -13375,8 +13768,9 @@
       <c r="X392" s="3"/>
       <c r="Y392" s="3"/>
       <c r="Z392" s="3"/>
-    </row>
-    <row r="393" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA392" s="3"/>
+    </row>
+    <row r="393" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>20</v>
       </c>
@@ -13407,8 +13801,9 @@
       <c r="X393" s="1"/>
       <c r="Y393" s="1"/>
       <c r="Z393" s="1"/>
-    </row>
-    <row r="394" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA393" s="1"/>
+    </row>
+    <row r="394" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A394" s="3">
         <v>20</v>
       </c>
@@ -13439,8 +13834,9 @@
       <c r="X394" s="3"/>
       <c r="Y394" s="3"/>
       <c r="Z394" s="3"/>
-    </row>
-    <row r="395" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA394" s="3"/>
+    </row>
+    <row r="395" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>20</v>
       </c>
@@ -13471,8 +13867,9 @@
       <c r="X395" s="1"/>
       <c r="Y395" s="1"/>
       <c r="Z395" s="1"/>
-    </row>
-    <row r="396" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA395" s="1"/>
+    </row>
+    <row r="396" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A396" s="3">
         <v>20</v>
       </c>
@@ -13503,8 +13900,9 @@
       <c r="X396" s="3"/>
       <c r="Y396" s="3"/>
       <c r="Z396" s="3"/>
-    </row>
-    <row r="397" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA396" s="3"/>
+    </row>
+    <row r="397" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>20</v>
       </c>
@@ -13535,8 +13933,9 @@
       <c r="X397" s="1"/>
       <c r="Y397" s="1"/>
       <c r="Z397" s="1"/>
-    </row>
-    <row r="398" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA397" s="1"/>
+    </row>
+    <row r="398" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A398" s="3">
         <v>20</v>
       </c>
@@ -13567,8 +13966,9 @@
       <c r="X398" s="3"/>
       <c r="Y398" s="3"/>
       <c r="Z398" s="3"/>
-    </row>
-    <row r="399" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA398" s="3"/>
+    </row>
+    <row r="399" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>20</v>
       </c>
@@ -13599,8 +13999,9 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
       <c r="Z399" s="1"/>
-    </row>
-    <row r="400" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA399" s="1"/>
+    </row>
+    <row r="400" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A400" s="3">
         <v>20</v>
       </c>
@@ -13631,8 +14032,9 @@
       <c r="X400" s="3"/>
       <c r="Y400" s="3"/>
       <c r="Z400" s="3"/>
-    </row>
-    <row r="401" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA400" s="3"/>
+    </row>
+    <row r="401" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A401" s="5">
         <v>20</v>
       </c>
@@ -13663,8 +14065,9 @@
       <c r="X401" s="5"/>
       <c r="Y401" s="5"/>
       <c r="Z401" s="5"/>
-    </row>
-    <row r="402" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA401" s="5"/>
+    </row>
+    <row r="402" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A402" s="4">
         <v>21</v>
       </c>
@@ -13695,8 +14098,9 @@
       <c r="X402" s="4"/>
       <c r="Y402" s="4"/>
       <c r="Z402" s="4"/>
-    </row>
-    <row r="403" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA402" s="4"/>
+    </row>
+    <row r="403" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>21</v>
       </c>
@@ -13727,8 +14131,9 @@
       <c r="X403" s="1"/>
       <c r="Y403" s="1"/>
       <c r="Z403" s="1"/>
-    </row>
-    <row r="404" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA403" s="1"/>
+    </row>
+    <row r="404" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A404" s="3">
         <v>21</v>
       </c>
@@ -13759,8 +14164,9 @@
       <c r="X404" s="3"/>
       <c r="Y404" s="3"/>
       <c r="Z404" s="3"/>
-    </row>
-    <row r="405" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA404" s="3"/>
+    </row>
+    <row r="405" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>21</v>
       </c>
@@ -13791,8 +14197,9 @@
       <c r="X405" s="1"/>
       <c r="Y405" s="1"/>
       <c r="Z405" s="1"/>
-    </row>
-    <row r="406" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA405" s="1"/>
+    </row>
+    <row r="406" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A406" s="3">
         <v>21</v>
       </c>
@@ -13823,8 +14230,9 @@
       <c r="X406" s="3"/>
       <c r="Y406" s="3"/>
       <c r="Z406" s="3"/>
-    </row>
-    <row r="407" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA406" s="3"/>
+    </row>
+    <row r="407" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>21</v>
       </c>
@@ -13855,8 +14263,9 @@
       <c r="X407" s="1"/>
       <c r="Y407" s="1"/>
       <c r="Z407" s="1"/>
-    </row>
-    <row r="408" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA407" s="1"/>
+    </row>
+    <row r="408" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A408" s="3">
         <v>21</v>
       </c>
@@ -13887,8 +14296,9 @@
       <c r="X408" s="3"/>
       <c r="Y408" s="3"/>
       <c r="Z408" s="3"/>
-    </row>
-    <row r="409" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA408" s="3"/>
+    </row>
+    <row r="409" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>21</v>
       </c>
@@ -13919,8 +14329,9 @@
       <c r="X409" s="1"/>
       <c r="Y409" s="1"/>
       <c r="Z409" s="1"/>
-    </row>
-    <row r="410" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA409" s="1"/>
+    </row>
+    <row r="410" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A410" s="3">
         <v>21</v>
       </c>
@@ -13951,8 +14362,9 @@
       <c r="X410" s="3"/>
       <c r="Y410" s="3"/>
       <c r="Z410" s="3"/>
-    </row>
-    <row r="411" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA410" s="3"/>
+    </row>
+    <row r="411" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>21</v>
       </c>
@@ -13983,8 +14395,9 @@
       <c r="X411" s="1"/>
       <c r="Y411" s="1"/>
       <c r="Z411" s="1"/>
-    </row>
-    <row r="412" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA411" s="1"/>
+    </row>
+    <row r="412" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A412" s="3">
         <v>21</v>
       </c>
@@ -14015,8 +14428,9 @@
       <c r="X412" s="3"/>
       <c r="Y412" s="3"/>
       <c r="Z412" s="3"/>
-    </row>
-    <row r="413" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA412" s="3"/>
+    </row>
+    <row r="413" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>21</v>
       </c>
@@ -14047,8 +14461,9 @@
       <c r="X413" s="1"/>
       <c r="Y413" s="1"/>
       <c r="Z413" s="1"/>
-    </row>
-    <row r="414" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA413" s="1"/>
+    </row>
+    <row r="414" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
         <v>21</v>
       </c>
@@ -14079,8 +14494,9 @@
       <c r="X414" s="3"/>
       <c r="Y414" s="3"/>
       <c r="Z414" s="3"/>
-    </row>
-    <row r="415" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA414" s="3"/>
+    </row>
+    <row r="415" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>21</v>
       </c>
@@ -14111,8 +14527,9 @@
       <c r="X415" s="1"/>
       <c r="Y415" s="1"/>
       <c r="Z415" s="1"/>
-    </row>
-    <row r="416" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA415" s="1"/>
+    </row>
+    <row r="416" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A416" s="3">
         <v>21</v>
       </c>
@@ -14143,8 +14560,9 @@
       <c r="X416" s="3"/>
       <c r="Y416" s="3"/>
       <c r="Z416" s="3"/>
-    </row>
-    <row r="417" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA416" s="3"/>
+    </row>
+    <row r="417" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>21</v>
       </c>
@@ -14175,8 +14593,9 @@
       <c r="X417" s="1"/>
       <c r="Y417" s="1"/>
       <c r="Z417" s="1"/>
-    </row>
-    <row r="418" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA417" s="1"/>
+    </row>
+    <row r="418" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A418" s="3">
         <v>21</v>
       </c>
@@ -14207,8 +14626,9 @@
       <c r="X418" s="3"/>
       <c r="Y418" s="3"/>
       <c r="Z418" s="3"/>
-    </row>
-    <row r="419" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA418" s="3"/>
+    </row>
+    <row r="419" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>21</v>
       </c>
@@ -14239,8 +14659,9 @@
       <c r="X419" s="1"/>
       <c r="Y419" s="1"/>
       <c r="Z419" s="1"/>
-    </row>
-    <row r="420" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA419" s="1"/>
+    </row>
+    <row r="420" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A420" s="3">
         <v>21</v>
       </c>
@@ -14271,8 +14692,9 @@
       <c r="X420" s="3"/>
       <c r="Y420" s="3"/>
       <c r="Z420" s="3"/>
-    </row>
-    <row r="421" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA420" s="3"/>
+    </row>
+    <row r="421" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A421" s="5">
         <v>21</v>
       </c>
@@ -14303,8 +14725,9 @@
       <c r="X421" s="5"/>
       <c r="Y421" s="5"/>
       <c r="Z421" s="5"/>
-    </row>
-    <row r="422" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA421" s="5"/>
+    </row>
+    <row r="422" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A422" s="4">
         <v>22</v>
       </c>
@@ -14335,8 +14758,9 @@
       <c r="X422" s="4"/>
       <c r="Y422" s="4"/>
       <c r="Z422" s="4"/>
-    </row>
-    <row r="423" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA422" s="4"/>
+    </row>
+    <row r="423" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>22</v>
       </c>
@@ -14367,8 +14791,9 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
       <c r="Z423" s="1"/>
-    </row>
-    <row r="424" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA423" s="1"/>
+    </row>
+    <row r="424" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A424" s="3">
         <v>22</v>
       </c>
@@ -14399,8 +14824,9 @@
       <c r="X424" s="3"/>
       <c r="Y424" s="3"/>
       <c r="Z424" s="3"/>
-    </row>
-    <row r="425" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA424" s="3"/>
+    </row>
+    <row r="425" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>22</v>
       </c>
@@ -14431,8 +14857,9 @@
       <c r="X425" s="1"/>
       <c r="Y425" s="1"/>
       <c r="Z425" s="1"/>
-    </row>
-    <row r="426" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA425" s="1"/>
+    </row>
+    <row r="426" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A426" s="3">
         <v>22</v>
       </c>
@@ -14463,8 +14890,9 @@
       <c r="X426" s="3"/>
       <c r="Y426" s="3"/>
       <c r="Z426" s="3"/>
-    </row>
-    <row r="427" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA426" s="3"/>
+    </row>
+    <row r="427" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>22</v>
       </c>
@@ -14495,8 +14923,9 @@
       <c r="X427" s="1"/>
       <c r="Y427" s="1"/>
       <c r="Z427" s="1"/>
-    </row>
-    <row r="428" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA427" s="1"/>
+    </row>
+    <row r="428" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A428" s="3">
         <v>22</v>
       </c>
@@ -14527,8 +14956,9 @@
       <c r="X428" s="3"/>
       <c r="Y428" s="3"/>
       <c r="Z428" s="3"/>
-    </row>
-    <row r="429" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA428" s="3"/>
+    </row>
+    <row r="429" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>22</v>
       </c>
@@ -14559,8 +14989,9 @@
       <c r="X429" s="1"/>
       <c r="Y429" s="1"/>
       <c r="Z429" s="1"/>
-    </row>
-    <row r="430" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA429" s="1"/>
+    </row>
+    <row r="430" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A430" s="3">
         <v>22</v>
       </c>
@@ -14591,8 +15022,9 @@
       <c r="X430" s="3"/>
       <c r="Y430" s="3"/>
       <c r="Z430" s="3"/>
-    </row>
-    <row r="431" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA430" s="3"/>
+    </row>
+    <row r="431" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>22</v>
       </c>
@@ -14623,8 +15055,9 @@
       <c r="X431" s="1"/>
       <c r="Y431" s="1"/>
       <c r="Z431" s="1"/>
-    </row>
-    <row r="432" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA431" s="1"/>
+    </row>
+    <row r="432" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A432" s="3">
         <v>22</v>
       </c>
@@ -14655,8 +15088,9 @@
       <c r="X432" s="3"/>
       <c r="Y432" s="3"/>
       <c r="Z432" s="3"/>
-    </row>
-    <row r="433" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA432" s="3"/>
+    </row>
+    <row r="433" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>22</v>
       </c>
@@ -14687,8 +15121,9 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
       <c r="Z433" s="1"/>
-    </row>
-    <row r="434" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA433" s="1"/>
+    </row>
+    <row r="434" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A434" s="3">
         <v>22</v>
       </c>
@@ -14719,8 +15154,9 @@
       <c r="X434" s="3"/>
       <c r="Y434" s="3"/>
       <c r="Z434" s="3"/>
-    </row>
-    <row r="435" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA434" s="3"/>
+    </row>
+    <row r="435" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>22</v>
       </c>
@@ -14751,8 +15187,9 @@
       <c r="X435" s="1"/>
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
-    </row>
-    <row r="436" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA435" s="1"/>
+    </row>
+    <row r="436" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A436" s="3">
         <v>22</v>
       </c>
@@ -14783,8 +15220,9 @@
       <c r="X436" s="3"/>
       <c r="Y436" s="3"/>
       <c r="Z436" s="3"/>
-    </row>
-    <row r="437" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA436" s="3"/>
+    </row>
+    <row r="437" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>22</v>
       </c>
@@ -14815,8 +15253,9 @@
       <c r="X437" s="1"/>
       <c r="Y437" s="1"/>
       <c r="Z437" s="1"/>
-    </row>
-    <row r="438" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA437" s="1"/>
+    </row>
+    <row r="438" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A438" s="3">
         <v>22</v>
       </c>
@@ -14847,8 +15286,9 @@
       <c r="X438" s="3"/>
       <c r="Y438" s="3"/>
       <c r="Z438" s="3"/>
-    </row>
-    <row r="439" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA438" s="3"/>
+    </row>
+    <row r="439" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>22</v>
       </c>
@@ -14879,8 +15319,9 @@
       <c r="X439" s="1"/>
       <c r="Y439" s="1"/>
       <c r="Z439" s="1"/>
-    </row>
-    <row r="440" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA439" s="1"/>
+    </row>
+    <row r="440" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A440" s="3">
         <v>22</v>
       </c>
@@ -14911,8 +15352,9 @@
       <c r="X440" s="3"/>
       <c r="Y440" s="3"/>
       <c r="Z440" s="3"/>
-    </row>
-    <row r="441" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA440" s="3"/>
+    </row>
+    <row r="441" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A441" s="5">
         <v>22</v>
       </c>
@@ -14943,8 +15385,9 @@
       <c r="X441" s="5"/>
       <c r="Y441" s="5"/>
       <c r="Z441" s="5"/>
-    </row>
-    <row r="442" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA441" s="5"/>
+    </row>
+    <row r="442" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A442" s="4">
         <v>23</v>
       </c>
@@ -14975,8 +15418,9 @@
       <c r="X442" s="4"/>
       <c r="Y442" s="4"/>
       <c r="Z442" s="4"/>
-    </row>
-    <row r="443" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA442" s="4"/>
+    </row>
+    <row r="443" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>23</v>
       </c>
@@ -15007,8 +15451,9 @@
       <c r="X443" s="1"/>
       <c r="Y443" s="1"/>
       <c r="Z443" s="1"/>
-    </row>
-    <row r="444" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA443" s="1"/>
+    </row>
+    <row r="444" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A444" s="3">
         <v>23</v>
       </c>
@@ -15039,8 +15484,9 @@
       <c r="X444" s="3"/>
       <c r="Y444" s="3"/>
       <c r="Z444" s="3"/>
-    </row>
-    <row r="445" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA444" s="3"/>
+    </row>
+    <row r="445" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>23</v>
       </c>
@@ -15071,8 +15517,9 @@
       <c r="X445" s="1"/>
       <c r="Y445" s="1"/>
       <c r="Z445" s="1"/>
-    </row>
-    <row r="446" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA445" s="1"/>
+    </row>
+    <row r="446" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A446" s="3">
         <v>23</v>
       </c>
@@ -15103,8 +15550,9 @@
       <c r="X446" s="3"/>
       <c r="Y446" s="3"/>
       <c r="Z446" s="3"/>
-    </row>
-    <row r="447" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA446" s="3"/>
+    </row>
+    <row r="447" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>23</v>
       </c>
@@ -15135,8 +15583,9 @@
       <c r="X447" s="1"/>
       <c r="Y447" s="1"/>
       <c r="Z447" s="1"/>
-    </row>
-    <row r="448" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA447" s="1"/>
+    </row>
+    <row r="448" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A448" s="3">
         <v>23</v>
       </c>
@@ -15167,8 +15616,9 @@
       <c r="X448" s="3"/>
       <c r="Y448" s="3"/>
       <c r="Z448" s="3"/>
-    </row>
-    <row r="449" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA448" s="3"/>
+    </row>
+    <row r="449" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>23</v>
       </c>
@@ -15199,8 +15649,9 @@
       <c r="X449" s="1"/>
       <c r="Y449" s="1"/>
       <c r="Z449" s="1"/>
-    </row>
-    <row r="450" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA449" s="1"/>
+    </row>
+    <row r="450" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A450" s="3">
         <v>23</v>
       </c>
@@ -15231,8 +15682,9 @@
       <c r="X450" s="3"/>
       <c r="Y450" s="3"/>
       <c r="Z450" s="3"/>
-    </row>
-    <row r="451" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA450" s="3"/>
+    </row>
+    <row r="451" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>23</v>
       </c>
@@ -15263,8 +15715,9 @@
       <c r="X451" s="1"/>
       <c r="Y451" s="1"/>
       <c r="Z451" s="1"/>
-    </row>
-    <row r="452" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA451" s="1"/>
+    </row>
+    <row r="452" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A452" s="3">
         <v>23</v>
       </c>
@@ -15295,8 +15748,9 @@
       <c r="X452" s="3"/>
       <c r="Y452" s="3"/>
       <c r="Z452" s="3"/>
-    </row>
-    <row r="453" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA452" s="3"/>
+    </row>
+    <row r="453" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>23</v>
       </c>
@@ -15327,8 +15781,9 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
       <c r="Z453" s="1"/>
-    </row>
-    <row r="454" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA453" s="1"/>
+    </row>
+    <row r="454" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A454" s="3">
         <v>23</v>
       </c>
@@ -15359,8 +15814,9 @@
       <c r="X454" s="3"/>
       <c r="Y454" s="3"/>
       <c r="Z454" s="3"/>
-    </row>
-    <row r="455" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA454" s="3"/>
+    </row>
+    <row r="455" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>23</v>
       </c>
@@ -15391,8 +15847,9 @@
       <c r="X455" s="1"/>
       <c r="Y455" s="1"/>
       <c r="Z455" s="1"/>
-    </row>
-    <row r="456" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA455" s="1"/>
+    </row>
+    <row r="456" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A456" s="3">
         <v>23</v>
       </c>
@@ -15423,8 +15880,9 @@
       <c r="X456" s="3"/>
       <c r="Y456" s="3"/>
       <c r="Z456" s="3"/>
-    </row>
-    <row r="457" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA456" s="3"/>
+    </row>
+    <row r="457" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>23</v>
       </c>
@@ -15455,8 +15913,9 @@
       <c r="X457" s="1"/>
       <c r="Y457" s="1"/>
       <c r="Z457" s="1"/>
-    </row>
-    <row r="458" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA457" s="1"/>
+    </row>
+    <row r="458" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A458" s="3">
         <v>23</v>
       </c>
@@ -15487,8 +15946,9 @@
       <c r="X458" s="3"/>
       <c r="Y458" s="3"/>
       <c r="Z458" s="3"/>
-    </row>
-    <row r="459" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA458" s="3"/>
+    </row>
+    <row r="459" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>23</v>
       </c>
@@ -15519,8 +15979,9 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
       <c r="Z459" s="1"/>
-    </row>
-    <row r="460" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA459" s="1"/>
+    </row>
+    <row r="460" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A460" s="3">
         <v>23</v>
       </c>
@@ -15551,8 +16012,9 @@
       <c r="X460" s="3"/>
       <c r="Y460" s="3"/>
       <c r="Z460" s="3"/>
-    </row>
-    <row r="461" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA460" s="3"/>
+    </row>
+    <row r="461" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A461" s="5">
         <v>23</v>
       </c>
@@ -15583,8 +16045,9 @@
       <c r="X461" s="5"/>
       <c r="Y461" s="5"/>
       <c r="Z461" s="5"/>
-    </row>
-    <row r="462" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA461" s="5"/>
+    </row>
+    <row r="462" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A462" s="4">
         <v>24</v>
       </c>
@@ -15615,8 +16078,9 @@
       <c r="X462" s="4"/>
       <c r="Y462" s="4"/>
       <c r="Z462" s="4"/>
-    </row>
-    <row r="463" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA462" s="4"/>
+    </row>
+    <row r="463" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>24</v>
       </c>
@@ -15647,8 +16111,9 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
       <c r="Z463" s="1"/>
-    </row>
-    <row r="464" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA463" s="1"/>
+    </row>
+    <row r="464" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A464" s="3">
         <v>24</v>
       </c>
@@ -15679,8 +16144,9 @@
       <c r="X464" s="3"/>
       <c r="Y464" s="3"/>
       <c r="Z464" s="3"/>
-    </row>
-    <row r="465" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA464" s="3"/>
+    </row>
+    <row r="465" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>24</v>
       </c>
@@ -15711,8 +16177,9 @@
       <c r="X465" s="1"/>
       <c r="Y465" s="1"/>
       <c r="Z465" s="1"/>
-    </row>
-    <row r="466" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA465" s="1"/>
+    </row>
+    <row r="466" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A466" s="3">
         <v>24</v>
       </c>
@@ -15743,8 +16210,9 @@
       <c r="X466" s="3"/>
       <c r="Y466" s="3"/>
       <c r="Z466" s="3"/>
-    </row>
-    <row r="467" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA466" s="3"/>
+    </row>
+    <row r="467" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>24</v>
       </c>
@@ -15775,8 +16243,9 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
       <c r="Z467" s="1"/>
-    </row>
-    <row r="468" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA467" s="1"/>
+    </row>
+    <row r="468" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A468" s="3">
         <v>24</v>
       </c>
@@ -15807,8 +16276,9 @@
       <c r="X468" s="3"/>
       <c r="Y468" s="3"/>
       <c r="Z468" s="3"/>
-    </row>
-    <row r="469" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA468" s="3"/>
+    </row>
+    <row r="469" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>24</v>
       </c>
@@ -15839,8 +16309,9 @@
       <c r="X469" s="1"/>
       <c r="Y469" s="1"/>
       <c r="Z469" s="1"/>
-    </row>
-    <row r="470" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA469" s="1"/>
+    </row>
+    <row r="470" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A470" s="3">
         <v>24</v>
       </c>
@@ -15871,8 +16342,9 @@
       <c r="X470" s="3"/>
       <c r="Y470" s="3"/>
       <c r="Z470" s="3"/>
-    </row>
-    <row r="471" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA470" s="3"/>
+    </row>
+    <row r="471" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>24</v>
       </c>
@@ -15903,8 +16375,9 @@
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
       <c r="Z471" s="1"/>
-    </row>
-    <row r="472" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA471" s="1"/>
+    </row>
+    <row r="472" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A472" s="3">
         <v>24</v>
       </c>
@@ -15935,8 +16408,9 @@
       <c r="X472" s="3"/>
       <c r="Y472" s="3"/>
       <c r="Z472" s="3"/>
-    </row>
-    <row r="473" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA472" s="3"/>
+    </row>
+    <row r="473" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>24</v>
       </c>
@@ -15967,8 +16441,9 @@
       <c r="X473" s="1"/>
       <c r="Y473" s="1"/>
       <c r="Z473" s="1"/>
-    </row>
-    <row r="474" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA473" s="1"/>
+    </row>
+    <row r="474" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A474" s="3">
         <v>24</v>
       </c>
@@ -15999,8 +16474,9 @@
       <c r="X474" s="3"/>
       <c r="Y474" s="3"/>
       <c r="Z474" s="3"/>
-    </row>
-    <row r="475" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA474" s="3"/>
+    </row>
+    <row r="475" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>24</v>
       </c>
@@ -16031,8 +16507,9 @@
       <c r="X475" s="1"/>
       <c r="Y475" s="1"/>
       <c r="Z475" s="1"/>
-    </row>
-    <row r="476" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA475" s="1"/>
+    </row>
+    <row r="476" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A476" s="3">
         <v>24</v>
       </c>
@@ -16063,8 +16540,9 @@
       <c r="X476" s="3"/>
       <c r="Y476" s="3"/>
       <c r="Z476" s="3"/>
-    </row>
-    <row r="477" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA476" s="3"/>
+    </row>
+    <row r="477" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>24</v>
       </c>
@@ -16095,8 +16573,9 @@
       <c r="X477" s="1"/>
       <c r="Y477" s="1"/>
       <c r="Z477" s="1"/>
-    </row>
-    <row r="478" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA477" s="1"/>
+    </row>
+    <row r="478" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A478" s="3">
         <v>24</v>
       </c>
@@ -16127,8 +16606,9 @@
       <c r="X478" s="3"/>
       <c r="Y478" s="3"/>
       <c r="Z478" s="3"/>
-    </row>
-    <row r="479" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA478" s="3"/>
+    </row>
+    <row r="479" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>24</v>
       </c>
@@ -16159,8 +16639,9 @@
       <c r="X479" s="1"/>
       <c r="Y479" s="1"/>
       <c r="Z479" s="1"/>
-    </row>
-    <row r="480" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA479" s="1"/>
+    </row>
+    <row r="480" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A480" s="3">
         <v>24</v>
       </c>
@@ -16191,8 +16672,9 @@
       <c r="X480" s="3"/>
       <c r="Y480" s="3"/>
       <c r="Z480" s="3"/>
-    </row>
-    <row r="481" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA480" s="3"/>
+    </row>
+    <row r="481" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A481" s="5">
         <v>24</v>
       </c>
@@ -16223,8 +16705,9 @@
       <c r="X481" s="5"/>
       <c r="Y481" s="5"/>
       <c r="Z481" s="5"/>
-    </row>
-    <row r="482" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA481" s="5"/>
+    </row>
+    <row r="482" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A482" s="4">
         <v>25</v>
       </c>
@@ -16255,8 +16738,9 @@
       <c r="X482" s="4"/>
       <c r="Y482" s="4"/>
       <c r="Z482" s="4"/>
-    </row>
-    <row r="483" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA482" s="4"/>
+    </row>
+    <row r="483" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>25</v>
       </c>
@@ -16287,8 +16771,9 @@
       <c r="X483" s="1"/>
       <c r="Y483" s="1"/>
       <c r="Z483" s="1"/>
-    </row>
-    <row r="484" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA483" s="1"/>
+    </row>
+    <row r="484" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A484" s="3">
         <v>25</v>
       </c>
@@ -16319,8 +16804,9 @@
       <c r="X484" s="3"/>
       <c r="Y484" s="3"/>
       <c r="Z484" s="3"/>
-    </row>
-    <row r="485" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA484" s="3"/>
+    </row>
+    <row r="485" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>25</v>
       </c>
@@ -16351,8 +16837,9 @@
       <c r="X485" s="1"/>
       <c r="Y485" s="1"/>
       <c r="Z485" s="1"/>
-    </row>
-    <row r="486" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA485" s="1"/>
+    </row>
+    <row r="486" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A486" s="3">
         <v>25</v>
       </c>
@@ -16383,8 +16870,9 @@
       <c r="X486" s="3"/>
       <c r="Y486" s="3"/>
       <c r="Z486" s="3"/>
-    </row>
-    <row r="487" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA486" s="3"/>
+    </row>
+    <row r="487" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>25</v>
       </c>
@@ -16415,8 +16903,9 @@
       <c r="X487" s="1"/>
       <c r="Y487" s="1"/>
       <c r="Z487" s="1"/>
-    </row>
-    <row r="488" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA487" s="1"/>
+    </row>
+    <row r="488" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A488" s="3">
         <v>25</v>
       </c>
@@ -16447,8 +16936,9 @@
       <c r="X488" s="3"/>
       <c r="Y488" s="3"/>
       <c r="Z488" s="3"/>
-    </row>
-    <row r="489" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA488" s="3"/>
+    </row>
+    <row r="489" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>25</v>
       </c>
@@ -16479,8 +16969,9 @@
       <c r="X489" s="1"/>
       <c r="Y489" s="1"/>
       <c r="Z489" s="1"/>
-    </row>
-    <row r="490" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA489" s="1"/>
+    </row>
+    <row r="490" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A490" s="3">
         <v>25</v>
       </c>
@@ -16511,8 +17002,9 @@
       <c r="X490" s="3"/>
       <c r="Y490" s="3"/>
       <c r="Z490" s="3"/>
-    </row>
-    <row r="491" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA490" s="3"/>
+    </row>
+    <row r="491" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>25</v>
       </c>
@@ -16543,8 +17035,9 @@
       <c r="X491" s="1"/>
       <c r="Y491" s="1"/>
       <c r="Z491" s="1"/>
-    </row>
-    <row r="492" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA491" s="1"/>
+    </row>
+    <row r="492" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A492" s="3">
         <v>25</v>
       </c>
@@ -16575,8 +17068,9 @@
       <c r="X492" s="3"/>
       <c r="Y492" s="3"/>
       <c r="Z492" s="3"/>
-    </row>
-    <row r="493" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA492" s="3"/>
+    </row>
+    <row r="493" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>25</v>
       </c>
@@ -16607,8 +17101,9 @@
       <c r="X493" s="1"/>
       <c r="Y493" s="1"/>
       <c r="Z493" s="1"/>
-    </row>
-    <row r="494" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA493" s="1"/>
+    </row>
+    <row r="494" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A494" s="3">
         <v>25</v>
       </c>
@@ -16639,8 +17134,9 @@
       <c r="X494" s="3"/>
       <c r="Y494" s="3"/>
       <c r="Z494" s="3"/>
-    </row>
-    <row r="495" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA494" s="3"/>
+    </row>
+    <row r="495" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>25</v>
       </c>
@@ -16671,8 +17167,9 @@
       <c r="X495" s="1"/>
       <c r="Y495" s="1"/>
       <c r="Z495" s="1"/>
-    </row>
-    <row r="496" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA495" s="1"/>
+    </row>
+    <row r="496" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A496" s="3">
         <v>25</v>
       </c>
@@ -16703,8 +17200,9 @@
       <c r="X496" s="3"/>
       <c r="Y496" s="3"/>
       <c r="Z496" s="3"/>
-    </row>
-    <row r="497" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA496" s="3"/>
+    </row>
+    <row r="497" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>25</v>
       </c>
@@ -16735,8 +17233,9 @@
       <c r="X497" s="1"/>
       <c r="Y497" s="1"/>
       <c r="Z497" s="1"/>
-    </row>
-    <row r="498" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA497" s="1"/>
+    </row>
+    <row r="498" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A498" s="3">
         <v>25</v>
       </c>
@@ -16767,8 +17266,9 @@
       <c r="X498" s="3"/>
       <c r="Y498" s="3"/>
       <c r="Z498" s="3"/>
-    </row>
-    <row r="499" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA498" s="3"/>
+    </row>
+    <row r="499" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>25</v>
       </c>
@@ -16799,8 +17299,9 @@
       <c r="X499" s="1"/>
       <c r="Y499" s="1"/>
       <c r="Z499" s="1"/>
-    </row>
-    <row r="500" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA499" s="1"/>
+    </row>
+    <row r="500" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A500" s="3">
         <v>25</v>
       </c>
@@ -16831,8 +17332,9 @@
       <c r="X500" s="3"/>
       <c r="Y500" s="3"/>
       <c r="Z500" s="3"/>
-    </row>
-    <row r="501" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA500" s="3"/>
+    </row>
+    <row r="501" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>25</v>
       </c>
@@ -16863,17 +17365,10 @@
       <c r="X501" s="1"/>
       <c r="Y501" s="1"/>
       <c r="Z501" s="1"/>
+      <c r="AA501" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:Z501 A2:B501">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>MOD(LIGNE(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C501">
+  <conditionalFormatting sqref="A2:AA501">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
@@ -16884,7 +17379,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Choisir le couvert correspondant" xr:uid="{EC40DB47-86F0-4C85-9A68-E1FB1B5C4E5C}">
           <x14:formula1>
             <xm:f>Paramètres!$A$2:$A$6</xm:f>
@@ -16903,6 +17398,12 @@
           </x14:formula1>
           <xm:sqref>C2:C501</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{84578B22-A7DC-454E-BA7E-43AEDC9D7DDE}">
+          <x14:formula1>
+            <xm:f>Paramètres!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G501</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -16911,10 +17412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C031E9-6812-4093-80E7-C0BA47D0334F}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16922,9 +17423,10 @@
     <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
@@ -16934,8 +17436,11 @@
       <c r="C1" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -16945,8 +17450,11 @@
       <c r="C2" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -16956,8 +17464,11 @@
       <c r="C3" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -16967,8 +17478,11 @@
       <c r="C4" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -16978,8 +17492,9 @@
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -16987,6 +17502,7 @@
         <v>56</v>
       </c>
       <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mesures_couverts.xlsx
+++ b/mesures_couverts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maral\Desktop\Universite\MASTER1\Q2\LBIRA2130 - Projet disciplinaire\LBIRA2130_Couverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DA2EBD-9E70-4275-BDB6-82B005F96760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD504281-11EF-4B38-AB5F-1F41C5607EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D0C76E02-6240-421E-9415-499825F072BD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="65">
   <si>
     <t>ID_planche</t>
   </si>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206F8975-33D2-4BAA-996D-101D2A201CBE}">
   <dimension ref="A1:AA501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,18 +820,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -859,18 +853,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -898,18 +886,12 @@
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -941,9 +923,7 @@
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -976,9 +956,7 @@
       <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1011,9 +989,7 @@
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1046,9 +1022,7 @@
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1081,9 +1055,7 @@
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1116,9 +1088,7 @@
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1151,9 +1121,7 @@
       <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1186,9 +1154,7 @@
       <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1221,9 +1187,7 @@
       <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1256,9 +1220,7 @@
       <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1291,9 +1253,7 @@
       <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1326,9 +1286,7 @@
       <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1361,9 +1319,7 @@
       <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1396,9 +1352,7 @@
       <c r="D18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1431,9 +1385,7 @@
       <c r="D19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1466,9 +1418,7 @@
       <c r="D20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1501,9 +1451,7 @@
       <c r="D21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>

--- a/mesures_couverts.xlsx
+++ b/mesures_couverts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maral\Desktop\Universite\MASTER1\Q2\LBIRA2130 - Projet disciplinaire\LBIRA2130_Couverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A20F36-5872-4161-A858-C01C2783CC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37415358-3336-444E-873B-8B2D74C475F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10272" windowHeight="12960" xr2:uid="{D0C76E02-6240-421E-9415-499825F072BD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{D0C76E02-6240-421E-9415-499825F072BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Mesures" sheetId="1" r:id="rId1"/>
@@ -331,21 +331,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -692,17 +678,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206F8975-33D2-4BAA-996D-101D2A201CBE}">
   <dimension ref="A1:AB1331"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="79" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
@@ -59333,15 +59319,7 @@
     <sortCondition ref="C2:C1544" customList="printemps,été,automne,hiver"/>
     <sortCondition ref="D2:D1544" customList="1a,1b,2a,2b,3a,3b,4a,4b,5a,5b,6a,6b,7a,7b,8a,8b,9a,9b,10a,10b"/>
   </sortState>
-  <conditionalFormatting sqref="F2:AB22 F23:P1331 R23:AB1331 A2:D1331">
-    <cfRule type="expression" dxfId="3" priority="19">
-      <formula>"MOD(ROW(),2)=0"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="20">
-      <formula>MOD(LIGNE(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1331 Q23:Q1331">
+  <conditionalFormatting sqref="A2:AB1331">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>"MOD(ROW(),2)=0"</formula>
     </cfRule>
